--- a/templates/11.11.25.xlsx
+++ b/templates/11.11.25.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\indicaciones_medicas2\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\indicaciones_medicas\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D65552B-60E5-4BA7-BA2C-346061486534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E870FE50-828D-4BDD-89EF-6185FA8A086D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8F26B026-E952-45BF-A1DB-55563CFCC2D9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8F26B026-E952-45BF-A1DB-55563CFCC2D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicaciones médicas" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="113">
   <si>
     <t xml:space="preserve">Fecha </t>
   </si>
@@ -364,6 +364,24 @@
   </si>
   <si>
     <t>TOF 1-2 de 4</t>
+  </si>
+  <si>
+    <t>{{FLEBOS}}</t>
+  </si>
+  <si>
+    <t>FLEBOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{DOSIS}} </t>
+  </si>
+  <si>
+    <t>{{intervalo}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/  / </t>
+  </si>
+  <si>
+    <t>{{Via}}</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1046,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1"/>
@@ -1290,6 +1308,16 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1299,89 +1327,101 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1398,8 +1438,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1413,10 +1451,14 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1428,99 +1470,94 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1588,24 +1625,11 @@
     <xf numFmtId="1" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Estilo 1" xfId="2" xr:uid="{5A164531-6111-430B-BEE7-AD80169FE218}"/>
@@ -1967,10 +1991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F7F867-996E-4386-BA02-4186311E04F2}">
-  <dimension ref="A1:Q112"/>
+  <dimension ref="A1:U112"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2013,13 +2037,13 @@
     <row r="2" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
-      <c r="C2" s="166" t="s">
+      <c r="C2" s="135" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
@@ -2034,12 +2058,12 @@
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
-      <c r="C3" s="166" t="s">
+      <c r="C3" s="135" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="12"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
@@ -2118,10 +2142,10 @@
       <c r="I6" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="168" t="s">
+      <c r="J6" s="136" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="169"/>
+      <c r="K6" s="137"/>
       <c r="L6" s="56" t="s">
         <v>8</v>
       </c>
@@ -2131,48 +2155,48 @@
       <c r="N6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="170" t="s">
+      <c r="O6" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="P6" s="171"/>
+      <c r="P6" s="139"/>
       <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="172" t="s">
+      <c r="B7" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="143"/>
-      <c r="D7" s="143"/>
-      <c r="E7" s="143"/>
-      <c r="F7" s="143"/>
-      <c r="G7" s="143"/>
-      <c r="H7" s="132"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="142"/>
       <c r="I7" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="180" t="s">
+      <c r="J7" s="152" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="130"/>
-      <c r="L7" s="130"/>
-      <c r="M7" s="140"/>
+      <c r="K7" s="153"/>
+      <c r="L7" s="153"/>
+      <c r="M7" s="144"/>
       <c r="N7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="173" t="s">
+      <c r="O7" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="P7" s="140"/>
+      <c r="P7" s="144"/>
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="174" t="s">
+      <c r="A8" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="175"/>
+      <c r="B8" s="146"/>
       <c r="C8" s="23" t="s">
         <v>15</v>
       </c>
@@ -2185,91 +2209,91 @@
       <c r="F8" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="176" t="s">
+      <c r="G8" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="177"/>
-      <c r="I8" s="141" t="s">
+      <c r="H8" s="148"/>
+      <c r="I8" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="140"/>
+      <c r="J8" s="144"/>
       <c r="K8" s="59" t="s">
         <v>57</v>
       </c>
       <c r="L8" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="M8" s="178" t="s">
+      <c r="M8" s="150" t="s">
         <v>77</v>
       </c>
-      <c r="N8" s="169"/>
-      <c r="O8" s="169"/>
-      <c r="P8" s="179"/>
+      <c r="N8" s="137"/>
+      <c r="O8" s="137"/>
+      <c r="P8" s="151"/>
       <c r="Q8" s="63"/>
     </row>
     <row r="9" spans="1:17" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="139" t="s">
+      <c r="A9" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="140"/>
-      <c r="C9" s="150" t="s">
+      <c r="B9" s="144"/>
+      <c r="C9" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="143"/>
-      <c r="E9" s="143"/>
-      <c r="F9" s="143"/>
-      <c r="G9" s="143"/>
-      <c r="H9" s="143"/>
-      <c r="I9" s="143"/>
-      <c r="J9" s="143"/>
-      <c r="K9" s="143"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="141"/>
+      <c r="J9" s="141"/>
+      <c r="K9" s="141"/>
       <c r="L9" s="67"/>
-      <c r="M9" s="151"/>
-      <c r="N9" s="130"/>
-      <c r="O9" s="130"/>
-      <c r="P9" s="140"/>
+      <c r="M9" s="161"/>
+      <c r="N9" s="153"/>
+      <c r="O9" s="153"/>
+      <c r="P9" s="144"/>
       <c r="Q9" s="64"/>
     </row>
     <row r="10" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="141" t="s">
+      <c r="A10" s="149" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="140"/>
-      <c r="C10" s="142" t="s">
+      <c r="B10" s="144"/>
+      <c r="C10" s="155" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="143"/>
-      <c r="E10" s="143"/>
-      <c r="F10" s="143"/>
-      <c r="G10" s="143"/>
-      <c r="H10" s="143"/>
-      <c r="I10" s="143"/>
-      <c r="J10" s="143"/>
-      <c r="K10" s="143"/>
-      <c r="L10" s="143"/>
-      <c r="M10" s="143"/>
-      <c r="N10" s="143"/>
-      <c r="O10" s="143"/>
-      <c r="P10" s="132"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="141"/>
+      <c r="K10" s="141"/>
+      <c r="L10" s="141"/>
+      <c r="M10" s="141"/>
+      <c r="N10" s="141"/>
+      <c r="O10" s="141"/>
+      <c r="P10" s="142"/>
       <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="144" t="s">
+      <c r="A11" s="156" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="145"/>
+      <c r="B11" s="157"/>
       <c r="C11" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="146" t="s">
+      <c r="D11" s="158" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="145"/>
+      <c r="E11" s="157"/>
       <c r="F11" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="129"/>
-      <c r="H11" s="130"/>
+      <c r="G11" s="183"/>
+      <c r="H11" s="153"/>
       <c r="I11" s="74"/>
       <c r="J11" s="69" t="s">
         <v>26</v>
@@ -2286,15 +2310,15 @@
       <c r="N11" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="O11" s="131" t="s">
+      <c r="O11" s="184" t="s">
         <v>80</v>
       </c>
-      <c r="P11" s="132"/>
+      <c r="P11" s="142"/>
       <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="133"/>
-      <c r="B12" s="134"/>
+      <c r="A12" s="185"/>
+      <c r="B12" s="186"/>
       <c r="C12" s="78" t="s">
         <v>104</v>
       </c>
@@ -2324,16 +2348,16 @@
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
-      <c r="G13" s="147"/>
-      <c r="H13" s="148"/>
-      <c r="I13" s="148"/>
-      <c r="J13" s="148"/>
-      <c r="K13" s="148"/>
-      <c r="L13" s="148"/>
-      <c r="M13" s="148"/>
-      <c r="N13" s="148"/>
-      <c r="O13" s="148"/>
-      <c r="P13" s="149"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="125"/>
+      <c r="K13" s="125"/>
+      <c r="L13" s="125"/>
+      <c r="M13" s="125"/>
+      <c r="N13" s="125"/>
+      <c r="O13" s="125"/>
+      <c r="P13" s="126"/>
       <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -2341,22 +2365,22 @@
       <c r="B14" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="128" t="s">
+      <c r="C14" s="182" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="126"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="126"/>
-      <c r="J14" s="126"/>
-      <c r="K14" s="126"/>
-      <c r="L14" s="126"/>
-      <c r="M14" s="126"/>
-      <c r="N14" s="126"/>
-      <c r="O14" s="126"/>
-      <c r="P14" s="127"/>
+      <c r="D14" s="171"/>
+      <c r="E14" s="171"/>
+      <c r="F14" s="171"/>
+      <c r="G14" s="171"/>
+      <c r="H14" s="171"/>
+      <c r="I14" s="171"/>
+      <c r="J14" s="171"/>
+      <c r="K14" s="171"/>
+      <c r="L14" s="171"/>
+      <c r="M14" s="171"/>
+      <c r="N14" s="171"/>
+      <c r="O14" s="171"/>
+      <c r="P14" s="173"/>
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -2401,12 +2425,12 @@
       <c r="B16" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="135" t="s">
+      <c r="C16" s="187" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="136"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="137"/>
+      <c r="D16" s="188"/>
+      <c r="E16" s="188"/>
+      <c r="F16" s="189"/>
       <c r="G16" s="33"/>
       <c r="H16" s="34"/>
       <c r="I16" s="50" t="s">
@@ -2423,245 +2447,254 @@
       <c r="P16" s="62"/>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="183"/>
+    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="119"/>
       <c r="B17" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="138" t="s">
+      <c r="C17" s="190" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="136"/>
-      <c r="I17" s="136"/>
-      <c r="J17" s="136"/>
-      <c r="K17" s="136"/>
-      <c r="L17" s="136"/>
-      <c r="M17" s="136"/>
-      <c r="N17" s="136"/>
-      <c r="O17" s="136"/>
-      <c r="P17" s="137"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="184"/>
-      <c r="B18" s="118" t="s">
+      <c r="D17" s="188"/>
+      <c r="E17" s="188"/>
+      <c r="F17" s="188"/>
+      <c r="G17" s="188"/>
+      <c r="H17" s="188"/>
+      <c r="I17" s="188"/>
+      <c r="J17" s="188"/>
+      <c r="K17" s="188"/>
+      <c r="L17" s="188"/>
+      <c r="M17" s="188"/>
+      <c r="N17" s="188"/>
+      <c r="O17" s="188"/>
+      <c r="P17" s="189"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="120"/>
+      <c r="B18" s="178" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="119"/>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="119"/>
-      <c r="J18" s="119"/>
-      <c r="K18" s="119"/>
-      <c r="L18" s="119"/>
-      <c r="M18" s="119"/>
-      <c r="N18" s="119"/>
-      <c r="O18" s="119"/>
-      <c r="P18" s="120"/>
-    </row>
-    <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C18" s="132"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="132"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="132"/>
+      <c r="K18" s="132"/>
+      <c r="L18" s="132"/>
+      <c r="M18" s="132"/>
+      <c r="N18" s="132"/>
+      <c r="O18" s="132"/>
+      <c r="P18" s="133"/>
+    </row>
+    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="121" t="s">
+      <c r="B19" s="179" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="122"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="124"/>
-      <c r="H19" s="122"/>
-      <c r="I19" s="122"/>
-      <c r="J19" s="122"/>
-      <c r="K19" s="122"/>
-      <c r="L19" s="122"/>
-      <c r="M19" s="122"/>
-      <c r="N19" s="122"/>
-      <c r="O19" s="122"/>
-      <c r="P19" s="123"/>
-    </row>
-    <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C19" s="165"/>
+      <c r="D19" s="165"/>
+      <c r="E19" s="165"/>
+      <c r="F19" s="166"/>
+      <c r="G19" s="180"/>
+      <c r="H19" s="165"/>
+      <c r="I19" s="165"/>
+      <c r="J19" s="165"/>
+      <c r="K19" s="165"/>
+      <c r="L19" s="165"/>
+      <c r="M19" s="165"/>
+      <c r="N19" s="165"/>
+      <c r="O19" s="165"/>
+      <c r="P19" s="166"/>
+    </row>
+    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="30"/>
-      <c r="B20" s="125"/>
-      <c r="C20" s="126"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="126"/>
-      <c r="H20" s="126"/>
-      <c r="I20" s="126"/>
-      <c r="J20" s="126"/>
-      <c r="K20" s="126"/>
-      <c r="L20" s="126"/>
-      <c r="M20" s="126"/>
-      <c r="N20" s="126"/>
-      <c r="O20" s="126"/>
-      <c r="P20" s="127"/>
-    </row>
-    <row r="21" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="181"/>
+      <c r="C20" s="171"/>
+      <c r="D20" s="171"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="171"/>
+      <c r="G20" s="171"/>
+      <c r="H20" s="171"/>
+      <c r="I20" s="171"/>
+      <c r="J20" s="171"/>
+      <c r="K20" s="171"/>
+      <c r="L20" s="171"/>
+      <c r="M20" s="171"/>
+      <c r="N20" s="171"/>
+      <c r="O20" s="171"/>
+      <c r="P20" s="173"/>
+      <c r="S20" s="174" t="s">
+        <v>111</v>
+      </c>
+      <c r="T20" s="114"/>
+      <c r="U20" s="115"/>
+    </row>
+    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="152" t="s">
+      <c r="B21" s="162" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="148"/>
-      <c r="E21" s="148"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="148"/>
-      <c r="K21" s="148"/>
-      <c r="L21" s="148"/>
-      <c r="M21" s="148"/>
-      <c r="N21" s="148"/>
-      <c r="O21" s="148"/>
-      <c r="P21" s="149"/>
-    </row>
-    <row r="22" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="125"/>
+      <c r="I21" s="125"/>
+      <c r="J21" s="125"/>
+      <c r="K21" s="125"/>
+      <c r="L21" s="125"/>
+      <c r="M21" s="125"/>
+      <c r="N21" s="125"/>
+      <c r="O21" s="125"/>
+      <c r="P21" s="126"/>
+    </row>
+    <row r="22" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="153" t="s">
+      <c r="B22" s="163" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="154"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="154"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="122"/>
-      <c r="I22" s="122"/>
-      <c r="J22" s="122"/>
-      <c r="K22" s="122"/>
-      <c r="L22" s="122"/>
-      <c r="M22" s="122"/>
-      <c r="N22" s="122"/>
-      <c r="O22" s="122"/>
-      <c r="P22" s="123"/>
-    </row>
-    <row r="23" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="122"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="122"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="164"/>
+      <c r="H22" s="165"/>
+      <c r="I22" s="165"/>
+      <c r="J22" s="165"/>
+      <c r="K22" s="165"/>
+      <c r="L22" s="165"/>
+      <c r="M22" s="165"/>
+      <c r="N22" s="165"/>
+      <c r="O22" s="165"/>
+      <c r="P22" s="166"/>
+    </row>
+    <row r="23" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="157" t="s">
+      <c r="B23" s="167" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="158"/>
-      <c r="D23" s="158"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="216" t="s">
+      <c r="C23" s="168"/>
+      <c r="D23" s="168"/>
+      <c r="E23" s="168"/>
+      <c r="F23" s="169"/>
+      <c r="G23" s="175" t="s">
         <v>105</v>
       </c>
-      <c r="H23" s="165"/>
+      <c r="H23" s="177"/>
       <c r="I23" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="J23" s="218"/>
-      <c r="K23" s="216" t="s">
+      <c r="J23" s="112"/>
+      <c r="K23" s="175" t="s">
         <v>106</v>
       </c>
-      <c r="L23" s="217"/>
+      <c r="L23" s="176"/>
       <c r="M23" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="N23" s="165"/>
-      <c r="O23" s="143"/>
-      <c r="P23" s="132"/>
-    </row>
-    <row r="24" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="185"/>
-      <c r="B24" s="160"/>
-      <c r="C24" s="126"/>
-      <c r="D24" s="126"/>
-      <c r="E24" s="126"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="162"/>
-      <c r="H24" s="162"/>
-      <c r="I24" s="126"/>
-      <c r="J24" s="162"/>
-      <c r="K24" s="126"/>
-      <c r="L24" s="126"/>
-      <c r="M24" s="126"/>
-      <c r="N24" s="126"/>
-      <c r="O24" s="126"/>
-      <c r="P24" s="127"/>
-    </row>
-    <row r="25" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="184"/>
-      <c r="B25" s="161"/>
-      <c r="C25" s="162"/>
-      <c r="D25" s="162"/>
-      <c r="E25" s="162"/>
-      <c r="F25" s="162"/>
-      <c r="G25" s="162"/>
-      <c r="H25" s="162"/>
-      <c r="I25" s="162"/>
-      <c r="J25" s="162"/>
-      <c r="K25" s="162"/>
-      <c r="L25" s="162"/>
-      <c r="M25" s="162"/>
-      <c r="N25" s="162"/>
-      <c r="O25" s="162"/>
-      <c r="P25" s="163"/>
-    </row>
-    <row r="26" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N23" s="177"/>
+      <c r="O23" s="141"/>
+      <c r="P23" s="142"/>
+    </row>
+    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="40"/>
+      <c r="B24" s="170"/>
+      <c r="C24" s="171"/>
+      <c r="D24" s="171"/>
+      <c r="E24" s="171"/>
+      <c r="F24" s="171"/>
+      <c r="G24" s="172"/>
+      <c r="H24" s="172"/>
+      <c r="I24" s="171"/>
+      <c r="J24" s="172"/>
+      <c r="K24" s="171"/>
+      <c r="L24" s="171"/>
+      <c r="M24" s="171"/>
+      <c r="N24" s="171"/>
+      <c r="O24" s="171"/>
+      <c r="P24" s="173"/>
+    </row>
+    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="113" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="191" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="192"/>
+      <c r="D25" s="192"/>
+      <c r="E25" s="193"/>
+      <c r="F25" s="193"/>
+      <c r="G25" s="193"/>
+      <c r="H25" s="193"/>
+      <c r="I25" s="193"/>
+      <c r="J25" s="193"/>
+      <c r="K25" s="193"/>
+      <c r="L25" s="193"/>
+      <c r="M25" s="193"/>
+      <c r="N25" s="193"/>
+      <c r="O25" s="193"/>
+      <c r="P25" s="193"/>
+    </row>
+    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="33"/>
-      <c r="B26" s="186" t="s">
+      <c r="B26" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="154"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="155"/>
-      <c r="G26" s="188"/>
-      <c r="H26" s="167"/>
-      <c r="I26" s="167"/>
-      <c r="J26" s="167"/>
-      <c r="K26" s="167"/>
-      <c r="L26" s="167"/>
-      <c r="M26" s="167"/>
-      <c r="N26" s="167"/>
-      <c r="O26" s="167"/>
-      <c r="P26" s="189"/>
-    </row>
-    <row r="27" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C26" s="122"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="127"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="128"/>
+      <c r="J26" s="128"/>
+      <c r="K26" s="128"/>
+      <c r="L26" s="128"/>
+      <c r="M26" s="128"/>
+      <c r="N26" s="128"/>
+      <c r="O26" s="128"/>
+      <c r="P26" s="129"/>
+    </row>
+    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="41"/>
-      <c r="B27" s="187"/>
-      <c r="C27" s="148"/>
-      <c r="D27" s="148"/>
-      <c r="E27" s="148"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="190"/>
-      <c r="H27" s="167"/>
-      <c r="I27" s="167"/>
-      <c r="J27" s="167"/>
-      <c r="K27" s="167"/>
-      <c r="L27" s="167"/>
-      <c r="M27" s="167"/>
-      <c r="N27" s="167"/>
-      <c r="O27" s="167"/>
-      <c r="P27" s="189"/>
-    </row>
-    <row r="28" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="124"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="130"/>
+      <c r="H27" s="128"/>
+      <c r="I27" s="128"/>
+      <c r="J27" s="128"/>
+      <c r="K27" s="128"/>
+      <c r="L27" s="128"/>
+      <c r="M27" s="128"/>
+      <c r="N27" s="128"/>
+      <c r="O27" s="128"/>
+      <c r="P27" s="129"/>
+    </row>
+    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="113"/>
-      <c r="D28" s="114"/>
+      <c r="B28" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="117"/>
+      <c r="D28" s="118"/>
       <c r="E28" s="42"/>
       <c r="F28" s="43"/>
       <c r="G28" s="44"/>
@@ -2675,15 +2708,19 @@
       <c r="O28" s="44"/>
       <c r="P28" s="43"/>
     </row>
-    <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="164" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="116"/>
-      <c r="D29" s="117"/>
+      <c r="B29" s="219" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="220" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="221" t="s">
+        <v>112</v>
+      </c>
       <c r="E29" s="45"/>
       <c r="F29" s="45"/>
       <c r="G29" s="46"/>
@@ -2697,15 +2734,15 @@
       <c r="O29" s="47"/>
       <c r="P29" s="47"/>
     </row>
-    <row r="30" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="113"/>
-      <c r="D30" s="114"/>
+      <c r="B30" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="117"/>
+      <c r="D30" s="118"/>
       <c r="E30" s="48"/>
       <c r="F30" s="49"/>
       <c r="G30" s="50"/>
@@ -2719,15 +2756,19 @@
       <c r="O30" s="34"/>
       <c r="P30" s="34"/>
     </row>
-    <row r="31" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="115" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="116"/>
-      <c r="D31" s="117"/>
+      <c r="B31" s="219" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="220" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="221" t="s">
+        <v>112</v>
+      </c>
       <c r="E31" s="51"/>
       <c r="F31" s="45"/>
       <c r="G31" s="46"/>
@@ -2741,15 +2782,15 @@
       <c r="O31" s="47"/>
       <c r="P31" s="47"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="113"/>
-      <c r="D32" s="114"/>
+      <c r="B32" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="117"/>
+      <c r="D32" s="118"/>
       <c r="E32" s="48"/>
       <c r="F32" s="49"/>
       <c r="G32" s="50"/>
@@ -2767,11 +2808,15 @@
       <c r="A33" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="115" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="116"/>
-      <c r="D33" s="117"/>
+      <c r="B33" s="219" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="220" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="221" t="s">
+        <v>112</v>
+      </c>
       <c r="E33" s="51"/>
       <c r="F33" s="45"/>
       <c r="G33" s="46"/>
@@ -2789,11 +2834,11 @@
       <c r="A34" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" s="113"/>
-      <c r="D34" s="114"/>
+      <c r="B34" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="117"/>
+      <c r="D34" s="118"/>
       <c r="E34" s="48"/>
       <c r="F34" s="49"/>
       <c r="G34" s="50"/>
@@ -2811,11 +2856,15 @@
       <c r="A35" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="115" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="116"/>
-      <c r="D35" s="117"/>
+      <c r="B35" s="219" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="220" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="221" t="s">
+        <v>112</v>
+      </c>
       <c r="E35" s="51"/>
       <c r="F35" s="45"/>
       <c r="G35" s="46"/>
@@ -2833,11 +2882,11 @@
       <c r="A36" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="113"/>
-      <c r="D36" s="114"/>
+      <c r="B36" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="117"/>
+      <c r="D36" s="118"/>
       <c r="E36" s="48"/>
       <c r="F36" s="49"/>
       <c r="G36" s="50"/>
@@ -2855,11 +2904,15 @@
       <c r="A37" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="115" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="116"/>
-      <c r="D37" s="117"/>
+      <c r="B37" s="219" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="220" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="221" t="s">
+        <v>112</v>
+      </c>
       <c r="E37" s="51"/>
       <c r="F37" s="45"/>
       <c r="G37" s="46"/>
@@ -2877,11 +2930,11 @@
       <c r="A38" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="113"/>
-      <c r="D38" s="114"/>
+      <c r="B38" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="117"/>
+      <c r="D38" s="118"/>
       <c r="E38" s="48"/>
       <c r="F38" s="49"/>
       <c r="G38" s="50"/>
@@ -2899,11 +2952,15 @@
       <c r="A39" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="115" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="116"/>
-      <c r="D39" s="117"/>
+      <c r="B39" s="219" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="220" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="221" t="s">
+        <v>112</v>
+      </c>
       <c r="E39" s="51"/>
       <c r="F39" s="45"/>
       <c r="G39" s="46"/>
@@ -2921,11 +2978,11 @@
       <c r="A40" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B40" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="113"/>
-      <c r="D40" s="114"/>
+      <c r="B40" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="117"/>
+      <c r="D40" s="118"/>
       <c r="E40" s="48"/>
       <c r="F40" s="49"/>
       <c r="G40" s="50"/>
@@ -2943,11 +3000,15 @@
       <c r="A41" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="115" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" s="116"/>
-      <c r="D41" s="117"/>
+      <c r="B41" s="219" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="220" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" s="221" t="s">
+        <v>112</v>
+      </c>
       <c r="E41" s="51"/>
       <c r="F41" s="45"/>
       <c r="G41" s="46"/>
@@ -2965,11 +3026,11 @@
       <c r="A42" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="C42" s="113"/>
-      <c r="D42" s="114"/>
+      <c r="B42" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="117"/>
+      <c r="D42" s="118"/>
       <c r="E42" s="48"/>
       <c r="F42" s="49"/>
       <c r="G42" s="50"/>
@@ -2987,11 +3048,15 @@
       <c r="A43" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B43" s="115" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" s="116"/>
-      <c r="D43" s="117"/>
+      <c r="B43" s="219" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="220" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="221" t="s">
+        <v>112</v>
+      </c>
       <c r="E43" s="51"/>
       <c r="F43" s="45"/>
       <c r="G43" s="46"/>
@@ -3009,11 +3074,11 @@
       <c r="A44" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B44" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" s="113"/>
-      <c r="D44" s="114"/>
+      <c r="B44" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="117"/>
+      <c r="D44" s="118"/>
       <c r="E44" s="48"/>
       <c r="F44" s="49"/>
       <c r="G44" s="50"/>
@@ -3031,11 +3096,15 @@
       <c r="A45" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B45" s="115" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" s="116"/>
-      <c r="D45" s="117"/>
+      <c r="B45" s="219" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="220" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" s="221" t="s">
+        <v>112</v>
+      </c>
       <c r="E45" s="51"/>
       <c r="F45" s="45"/>
       <c r="G45" s="46"/>
@@ -3053,11 +3122,11 @@
       <c r="A46" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B46" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="C46" s="113"/>
-      <c r="D46" s="114"/>
+      <c r="B46" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="117"/>
+      <c r="D46" s="118"/>
       <c r="E46" s="48"/>
       <c r="F46" s="49"/>
       <c r="G46" s="50"/>
@@ -3075,11 +3144,15 @@
       <c r="A47" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="115" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" s="116"/>
-      <c r="D47" s="117"/>
+      <c r="B47" s="219" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="220" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="221" t="s">
+        <v>112</v>
+      </c>
       <c r="E47" s="51"/>
       <c r="F47" s="45"/>
       <c r="G47" s="46"/>
@@ -3097,11 +3170,11 @@
       <c r="A48" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B48" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="C48" s="113"/>
-      <c r="D48" s="114"/>
+      <c r="B48" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="117"/>
+      <c r="D48" s="118"/>
       <c r="E48" s="48"/>
       <c r="F48" s="49"/>
       <c r="G48" s="50"/>
@@ -3119,11 +3192,15 @@
       <c r="A49" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B49" s="115" t="s">
-        <v>75</v>
-      </c>
-      <c r="C49" s="116"/>
-      <c r="D49" s="117"/>
+      <c r="B49" s="219" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="220" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49" s="221" t="s">
+        <v>112</v>
+      </c>
       <c r="E49" s="51"/>
       <c r="F49" s="45"/>
       <c r="G49" s="46"/>
@@ -3141,11 +3218,11 @@
       <c r="A50" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B50" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="C50" s="113"/>
-      <c r="D50" s="114"/>
+      <c r="B50" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="117"/>
+      <c r="D50" s="118"/>
       <c r="E50" s="48"/>
       <c r="F50" s="49"/>
       <c r="G50" s="50"/>
@@ -3163,11 +3240,15 @@
       <c r="A51" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B51" s="115" t="s">
-        <v>75</v>
-      </c>
-      <c r="C51" s="116"/>
-      <c r="D51" s="117"/>
+      <c r="B51" s="219" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="220" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51" s="221" t="s">
+        <v>112</v>
+      </c>
       <c r="E51" s="7"/>
       <c r="F51" s="52"/>
       <c r="G51" s="46"/>
@@ -3185,11 +3266,11 @@
       <c r="A52" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B52" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="C52" s="113"/>
-      <c r="D52" s="114"/>
+      <c r="B52" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" s="117"/>
+      <c r="D52" s="118"/>
       <c r="E52" s="48"/>
       <c r="F52" s="49"/>
       <c r="G52" s="50"/>
@@ -3207,11 +3288,15 @@
       <c r="A53" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B53" s="115" t="s">
-        <v>75</v>
-      </c>
-      <c r="C53" s="116"/>
-      <c r="D53" s="117"/>
+      <c r="B53" s="219" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="220" t="s">
+        <v>110</v>
+      </c>
+      <c r="D53" s="221" t="s">
+        <v>112</v>
+      </c>
       <c r="E53" s="51"/>
       <c r="F53" s="45"/>
       <c r="G53" s="46"/>
@@ -3229,11 +3314,11 @@
       <c r="A54" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B54" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="C54" s="113"/>
-      <c r="D54" s="114"/>
+      <c r="B54" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" s="117"/>
+      <c r="D54" s="118"/>
       <c r="E54" s="48"/>
       <c r="F54" s="49"/>
       <c r="G54" s="50"/>
@@ -3251,11 +3336,15 @@
       <c r="A55" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B55" s="115" t="s">
-        <v>75</v>
-      </c>
-      <c r="C55" s="116"/>
-      <c r="D55" s="117"/>
+      <c r="B55" s="219" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="220" t="s">
+        <v>110</v>
+      </c>
+      <c r="D55" s="221" t="s">
+        <v>112</v>
+      </c>
       <c r="E55" s="51"/>
       <c r="F55" s="45"/>
       <c r="G55" s="46"/>
@@ -3273,11 +3362,11 @@
       <c r="A56" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="C56" s="113"/>
-      <c r="D56" s="114"/>
+      <c r="B56" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="117"/>
+      <c r="D56" s="118"/>
       <c r="E56" s="48"/>
       <c r="F56" s="49"/>
       <c r="G56" s="50"/>
@@ -3295,11 +3384,15 @@
       <c r="A57" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="115" t="s">
-        <v>75</v>
-      </c>
-      <c r="C57" s="116"/>
-      <c r="D57" s="117"/>
+      <c r="B57" s="219" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" s="220" t="s">
+        <v>110</v>
+      </c>
+      <c r="D57" s="221" t="s">
+        <v>112</v>
+      </c>
       <c r="E57" s="51"/>
       <c r="F57" s="45"/>
       <c r="G57" s="46"/>
@@ -3317,21 +3410,21 @@
       <c r="A58" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B58" s="182"/>
-      <c r="C58" s="119"/>
-      <c r="D58" s="120"/>
+      <c r="B58" s="131"/>
+      <c r="C58" s="132"/>
+      <c r="D58" s="133"/>
       <c r="E58" s="53"/>
       <c r="F58" s="54"/>
-      <c r="G58" s="181" t="s">
+      <c r="G58" s="134" t="s">
         <v>44</v>
       </c>
-      <c r="H58" s="119"/>
-      <c r="I58" s="119"/>
-      <c r="J58" s="119"/>
-      <c r="K58" s="119"/>
-      <c r="L58" s="119"/>
-      <c r="M58" s="119"/>
-      <c r="N58" s="119"/>
+      <c r="H58" s="132"/>
+      <c r="I58" s="132"/>
+      <c r="J58" s="132"/>
+      <c r="K58" s="132"/>
+      <c r="L58" s="132"/>
+      <c r="M58" s="132"/>
+      <c r="N58" s="132"/>
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
     </row>
@@ -3339,11 +3432,11 @@
       <c r="A59" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B59" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="C59" s="113"/>
-      <c r="D59" s="114"/>
+      <c r="B59" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" s="117"/>
+      <c r="D59" s="118"/>
       <c r="E59" s="48"/>
       <c r="F59" s="49"/>
       <c r="G59" s="50"/>
@@ -3361,11 +3454,15 @@
       <c r="A60" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B60" s="115" t="s">
-        <v>75</v>
-      </c>
-      <c r="C60" s="116"/>
-      <c r="D60" s="117"/>
+      <c r="B60" s="219" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" s="220" t="s">
+        <v>110</v>
+      </c>
+      <c r="D60" s="221" t="s">
+        <v>112</v>
+      </c>
       <c r="E60" s="51"/>
       <c r="F60" s="45"/>
       <c r="G60" s="46"/>
@@ -3383,11 +3480,11 @@
       <c r="A61" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B61" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="C61" s="113"/>
-      <c r="D61" s="114"/>
+      <c r="B61" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="117"/>
+      <c r="D61" s="118"/>
       <c r="E61" s="48"/>
       <c r="F61" s="49"/>
       <c r="G61" s="50"/>
@@ -3405,11 +3502,15 @@
       <c r="A62" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B62" s="115" t="s">
-        <v>75</v>
-      </c>
-      <c r="C62" s="116"/>
-      <c r="D62" s="117"/>
+      <c r="B62" s="219" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="220" t="s">
+        <v>110</v>
+      </c>
+      <c r="D62" s="221" t="s">
+        <v>112</v>
+      </c>
       <c r="E62" s="51"/>
       <c r="F62" s="45"/>
       <c r="G62" s="46"/>
@@ -3427,11 +3528,11 @@
       <c r="A63" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B63" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="C63" s="113"/>
-      <c r="D63" s="114"/>
+      <c r="B63" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" s="117"/>
+      <c r="D63" s="118"/>
       <c r="E63" s="48"/>
       <c r="F63" s="49"/>
       <c r="G63" s="50"/>
@@ -3449,11 +3550,15 @@
       <c r="A64" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B64" s="115" t="s">
-        <v>75</v>
-      </c>
-      <c r="C64" s="116"/>
-      <c r="D64" s="117"/>
+      <c r="B64" s="219" t="s">
+        <v>109</v>
+      </c>
+      <c r="C64" s="220" t="s">
+        <v>110</v>
+      </c>
+      <c r="D64" s="221" t="s">
+        <v>112</v>
+      </c>
       <c r="E64" s="51"/>
       <c r="F64" s="45"/>
       <c r="G64" s="46"/>
@@ -3471,11 +3576,11 @@
       <c r="A65" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="C65" s="113"/>
-      <c r="D65" s="114"/>
+      <c r="B65" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" s="117"/>
+      <c r="D65" s="118"/>
       <c r="E65" s="48"/>
       <c r="F65" s="49"/>
       <c r="G65" s="50"/>
@@ -3493,11 +3598,15 @@
       <c r="A66" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B66" s="115" t="s">
-        <v>75</v>
-      </c>
-      <c r="C66" s="116"/>
-      <c r="D66" s="117"/>
+      <c r="B66" s="219" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" s="220" t="s">
+        <v>110</v>
+      </c>
+      <c r="D66" s="221" t="s">
+        <v>112</v>
+      </c>
       <c r="E66" s="51"/>
       <c r="F66" s="45"/>
       <c r="G66" s="46"/>
@@ -3515,11 +3624,11 @@
       <c r="A67" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B67" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="C67" s="113"/>
-      <c r="D67" s="114"/>
+      <c r="B67" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" s="117"/>
+      <c r="D67" s="118"/>
       <c r="E67" s="48"/>
       <c r="F67" s="49"/>
       <c r="G67" s="50"/>
@@ -3537,11 +3646,15 @@
       <c r="A68" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="115" t="s">
-        <v>75</v>
-      </c>
-      <c r="C68" s="116"/>
-      <c r="D68" s="117"/>
+      <c r="B68" s="219" t="s">
+        <v>109</v>
+      </c>
+      <c r="C68" s="220" t="s">
+        <v>110</v>
+      </c>
+      <c r="D68" s="221" t="s">
+        <v>112</v>
+      </c>
       <c r="E68" s="51"/>
       <c r="F68" s="45"/>
       <c r="G68" s="46"/>
@@ -3559,11 +3672,11 @@
       <c r="A69" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B69" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="C69" s="113"/>
-      <c r="D69" s="114"/>
+      <c r="B69" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" s="117"/>
+      <c r="D69" s="118"/>
       <c r="E69" s="48"/>
       <c r="F69" s="49"/>
       <c r="G69" s="50"/>
@@ -3581,11 +3694,15 @@
       <c r="A70" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B70" s="115" t="s">
-        <v>75</v>
-      </c>
-      <c r="C70" s="116"/>
-      <c r="D70" s="117"/>
+      <c r="B70" s="219" t="s">
+        <v>109</v>
+      </c>
+      <c r="C70" s="220" t="s">
+        <v>110</v>
+      </c>
+      <c r="D70" s="221" t="s">
+        <v>112</v>
+      </c>
       <c r="E70" s="51"/>
       <c r="F70" s="45"/>
       <c r="G70" s="46"/>
@@ -3603,11 +3720,11 @@
       <c r="A71" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B71" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="C71" s="113"/>
-      <c r="D71" s="114"/>
+      <c r="B71" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" s="117"/>
+      <c r="D71" s="118"/>
       <c r="E71" s="48"/>
       <c r="F71" s="49"/>
       <c r="G71" s="50"/>
@@ -3625,11 +3742,15 @@
       <c r="A72" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B72" s="115" t="s">
-        <v>75</v>
-      </c>
-      <c r="C72" s="116"/>
-      <c r="D72" s="117"/>
+      <c r="B72" s="219" t="s">
+        <v>109</v>
+      </c>
+      <c r="C72" s="220" t="s">
+        <v>110</v>
+      </c>
+      <c r="D72" s="221" t="s">
+        <v>112</v>
+      </c>
       <c r="E72" s="51"/>
       <c r="F72" s="45"/>
       <c r="G72" s="46"/>
@@ -3647,11 +3768,11 @@
       <c r="A73" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="C73" s="113"/>
-      <c r="D73" s="114"/>
+      <c r="B73" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" s="117"/>
+      <c r="D73" s="118"/>
       <c r="E73" s="48"/>
       <c r="F73" s="49"/>
       <c r="G73" s="50"/>
@@ -3669,11 +3790,15 @@
       <c r="A74" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="115" t="s">
-        <v>75</v>
-      </c>
-      <c r="C74" s="116"/>
-      <c r="D74" s="117"/>
+      <c r="B74" s="219" t="s">
+        <v>109</v>
+      </c>
+      <c r="C74" s="220" t="s">
+        <v>110</v>
+      </c>
+      <c r="D74" s="221" t="s">
+        <v>112</v>
+      </c>
       <c r="E74" s="51"/>
       <c r="F74" s="45"/>
       <c r="G74" s="46"/>
@@ -3691,11 +3816,11 @@
       <c r="A75" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B75" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="C75" s="113"/>
-      <c r="D75" s="114"/>
+      <c r="B75" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="C75" s="117"/>
+      <c r="D75" s="118"/>
       <c r="E75" s="48"/>
       <c r="F75" s="49"/>
       <c r="G75" s="50"/>
@@ -3713,11 +3838,15 @@
       <c r="A76" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B76" s="115" t="s">
-        <v>75</v>
-      </c>
-      <c r="C76" s="116"/>
-      <c r="D76" s="117"/>
+      <c r="B76" s="219" t="s">
+        <v>109</v>
+      </c>
+      <c r="C76" s="220" t="s">
+        <v>110</v>
+      </c>
+      <c r="D76" s="221" t="s">
+        <v>112</v>
+      </c>
       <c r="E76" s="51"/>
       <c r="F76" s="45"/>
       <c r="G76" s="46"/>
@@ -3735,11 +3864,11 @@
       <c r="A77" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B77" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="C77" s="113"/>
-      <c r="D77" s="114"/>
+      <c r="B77" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="C77" s="117"/>
+      <c r="D77" s="118"/>
       <c r="E77" s="48"/>
       <c r="F77" s="49"/>
       <c r="G77" s="50"/>
@@ -3757,11 +3886,15 @@
       <c r="A78" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B78" s="115" t="s">
-        <v>75</v>
-      </c>
-      <c r="C78" s="116"/>
-      <c r="D78" s="117"/>
+      <c r="B78" s="219" t="s">
+        <v>109</v>
+      </c>
+      <c r="C78" s="220" t="s">
+        <v>110</v>
+      </c>
+      <c r="D78" s="221" t="s">
+        <v>112</v>
+      </c>
       <c r="E78" s="51"/>
       <c r="F78" s="45"/>
       <c r="G78" s="46"/>
@@ -3779,11 +3912,11 @@
       <c r="A79" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B79" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="C79" s="113"/>
-      <c r="D79" s="114"/>
+      <c r="B79" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" s="117"/>
+      <c r="D79" s="118"/>
       <c r="E79" s="48"/>
       <c r="F79" s="49"/>
       <c r="G79" s="50"/>
@@ -3801,11 +3934,15 @@
       <c r="A80" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B80" s="115" t="s">
-        <v>75</v>
-      </c>
-      <c r="C80" s="116"/>
-      <c r="D80" s="117"/>
+      <c r="B80" s="219" t="s">
+        <v>109</v>
+      </c>
+      <c r="C80" s="220" t="s">
+        <v>110</v>
+      </c>
+      <c r="D80" s="221" t="s">
+        <v>112</v>
+      </c>
       <c r="E80" s="51"/>
       <c r="F80" s="45"/>
       <c r="G80" s="46"/>
@@ -3823,11 +3960,11 @@
       <c r="A81" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B81" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="C81" s="113"/>
-      <c r="D81" s="114"/>
+      <c r="B81" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="C81" s="117"/>
+      <c r="D81" s="118"/>
       <c r="E81" s="48"/>
       <c r="F81" s="49"/>
       <c r="G81" s="50"/>
@@ -3845,11 +3982,15 @@
       <c r="A82" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B82" s="115" t="s">
-        <v>75</v>
-      </c>
-      <c r="C82" s="116"/>
-      <c r="D82" s="117"/>
+      <c r="B82" s="219" t="s">
+        <v>109</v>
+      </c>
+      <c r="C82" s="220" t="s">
+        <v>110</v>
+      </c>
+      <c r="D82" s="221" t="s">
+        <v>112</v>
+      </c>
       <c r="E82" s="51"/>
       <c r="F82" s="45"/>
       <c r="G82" s="46"/>
@@ -3867,11 +4008,11 @@
       <c r="A83" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B83" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="C83" s="113"/>
-      <c r="D83" s="114"/>
+      <c r="B83" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="C83" s="117"/>
+      <c r="D83" s="118"/>
       <c r="E83" s="48"/>
       <c r="F83" s="49"/>
       <c r="G83" s="50"/>
@@ -3889,11 +4030,15 @@
       <c r="A84" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B84" s="115" t="s">
-        <v>75</v>
-      </c>
-      <c r="C84" s="116"/>
-      <c r="D84" s="117"/>
+      <c r="B84" s="219" t="s">
+        <v>109</v>
+      </c>
+      <c r="C84" s="220" t="s">
+        <v>110</v>
+      </c>
+      <c r="D84" s="221" t="s">
+        <v>112</v>
+      </c>
       <c r="E84" s="51"/>
       <c r="F84" s="45"/>
       <c r="G84" s="46"/>
@@ -3911,11 +4056,11 @@
       <c r="A85" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B85" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="C85" s="113"/>
-      <c r="D85" s="114"/>
+      <c r="B85" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="C85" s="117"/>
+      <c r="D85" s="118"/>
       <c r="E85" s="48"/>
       <c r="F85" s="49"/>
       <c r="G85" s="50"/>
@@ -3933,11 +4078,15 @@
       <c r="A86" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B86" s="115" t="s">
-        <v>75</v>
-      </c>
-      <c r="C86" s="116"/>
-      <c r="D86" s="117"/>
+      <c r="B86" s="219" t="s">
+        <v>109</v>
+      </c>
+      <c r="C86" s="220" t="s">
+        <v>110</v>
+      </c>
+      <c r="D86" s="221" t="s">
+        <v>112</v>
+      </c>
       <c r="E86" s="51"/>
       <c r="F86" s="45"/>
       <c r="G86" s="46"/>
@@ -3955,11 +4104,11 @@
       <c r="A87" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B87" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="C87" s="113"/>
-      <c r="D87" s="114"/>
+      <c r="B87" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="C87" s="117"/>
+      <c r="D87" s="118"/>
       <c r="E87" s="48"/>
       <c r="F87" s="49"/>
       <c r="G87" s="50"/>
@@ -3977,11 +4126,15 @@
       <c r="A88" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B88" s="115" t="s">
-        <v>75</v>
-      </c>
-      <c r="C88" s="116"/>
-      <c r="D88" s="117"/>
+      <c r="B88" s="219" t="s">
+        <v>109</v>
+      </c>
+      <c r="C88" s="220" t="s">
+        <v>110</v>
+      </c>
+      <c r="D88" s="221" t="s">
+        <v>112</v>
+      </c>
       <c r="E88" s="51"/>
       <c r="F88" s="45"/>
       <c r="G88" s="46"/>
@@ -3999,11 +4152,11 @@
       <c r="A89" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B89" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="C89" s="113"/>
-      <c r="D89" s="114"/>
+      <c r="B89" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="C89" s="117"/>
+      <c r="D89" s="118"/>
       <c r="E89" s="48"/>
       <c r="F89" s="49"/>
       <c r="G89" s="50"/>
@@ -4021,11 +4174,15 @@
       <c r="A90" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B90" s="115" t="s">
-        <v>75</v>
-      </c>
-      <c r="C90" s="116"/>
-      <c r="D90" s="117"/>
+      <c r="B90" s="219" t="s">
+        <v>109</v>
+      </c>
+      <c r="C90" s="220" t="s">
+        <v>110</v>
+      </c>
+      <c r="D90" s="221" t="s">
+        <v>112</v>
+      </c>
       <c r="E90" s="51"/>
       <c r="F90" s="45"/>
       <c r="G90" s="46"/>
@@ -4043,11 +4200,11 @@
       <c r="A91" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B91" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="C91" s="113"/>
-      <c r="D91" s="114"/>
+      <c r="B91" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="C91" s="117"/>
+      <c r="D91" s="118"/>
       <c r="E91" s="48"/>
       <c r="F91" s="49"/>
       <c r="G91" s="50"/>
@@ -4065,11 +4222,15 @@
       <c r="A92" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B92" s="115" t="s">
-        <v>75</v>
-      </c>
-      <c r="C92" s="116"/>
-      <c r="D92" s="117"/>
+      <c r="B92" s="219" t="s">
+        <v>109</v>
+      </c>
+      <c r="C92" s="220" t="s">
+        <v>110</v>
+      </c>
+      <c r="D92" s="221" t="s">
+        <v>112</v>
+      </c>
       <c r="E92" s="51"/>
       <c r="F92" s="45"/>
       <c r="G92" s="46"/>
@@ -4087,11 +4248,11 @@
       <c r="A93" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B93" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="C93" s="113"/>
-      <c r="D93" s="114"/>
+      <c r="B93" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="C93" s="117"/>
+      <c r="D93" s="118"/>
       <c r="E93" s="48"/>
       <c r="F93" s="49"/>
       <c r="G93" s="50"/>
@@ -4109,11 +4270,15 @@
       <c r="A94" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B94" s="115" t="s">
-        <v>75</v>
-      </c>
-      <c r="C94" s="116"/>
-      <c r="D94" s="117"/>
+      <c r="B94" s="219" t="s">
+        <v>109</v>
+      </c>
+      <c r="C94" s="220" t="s">
+        <v>110</v>
+      </c>
+      <c r="D94" s="221" t="s">
+        <v>112</v>
+      </c>
       <c r="E94" s="51"/>
       <c r="F94" s="45"/>
       <c r="G94" s="46"/>
@@ -4131,11 +4296,11 @@
       <c r="A95" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B95" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="C95" s="113"/>
-      <c r="D95" s="114"/>
+      <c r="B95" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="C95" s="117"/>
+      <c r="D95" s="118"/>
       <c r="E95" s="48"/>
       <c r="F95" s="49"/>
       <c r="G95" s="50"/>
@@ -4153,11 +4318,15 @@
       <c r="A96" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B96" s="115" t="s">
-        <v>75</v>
-      </c>
-      <c r="C96" s="116"/>
-      <c r="D96" s="117"/>
+      <c r="B96" s="219" t="s">
+        <v>109</v>
+      </c>
+      <c r="C96" s="220" t="s">
+        <v>110</v>
+      </c>
+      <c r="D96" s="221" t="s">
+        <v>112</v>
+      </c>
       <c r="E96" s="51"/>
       <c r="F96" s="45"/>
       <c r="G96" s="46"/>
@@ -4175,11 +4344,11 @@
       <c r="A97" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B97" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="C97" s="113"/>
-      <c r="D97" s="114"/>
+      <c r="B97" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="C97" s="117"/>
+      <c r="D97" s="118"/>
       <c r="E97" s="48"/>
       <c r="F97" s="49"/>
       <c r="G97" s="50"/>
@@ -4197,11 +4366,15 @@
       <c r="A98" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B98" s="115" t="s">
-        <v>75</v>
-      </c>
-      <c r="C98" s="116"/>
-      <c r="D98" s="117"/>
+      <c r="B98" s="219" t="s">
+        <v>109</v>
+      </c>
+      <c r="C98" s="220" t="s">
+        <v>110</v>
+      </c>
+      <c r="D98" s="221" t="s">
+        <v>112</v>
+      </c>
       <c r="E98" s="51"/>
       <c r="F98" s="45"/>
       <c r="G98" s="46"/>
@@ -4219,11 +4392,11 @@
       <c r="A99" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B99" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="C99" s="113"/>
-      <c r="D99" s="114"/>
+      <c r="B99" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="C99" s="117"/>
+      <c r="D99" s="118"/>
       <c r="E99" s="48"/>
       <c r="F99" s="49"/>
       <c r="G99" s="50"/>
@@ -4241,11 +4414,15 @@
       <c r="A100" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B100" s="115" t="s">
-        <v>75</v>
-      </c>
-      <c r="C100" s="116"/>
-      <c r="D100" s="117"/>
+      <c r="B100" s="219" t="s">
+        <v>109</v>
+      </c>
+      <c r="C100" s="220" t="s">
+        <v>110</v>
+      </c>
+      <c r="D100" s="221" t="s">
+        <v>112</v>
+      </c>
       <c r="E100" s="51"/>
       <c r="F100" s="45"/>
       <c r="G100" s="46"/>
@@ -4263,11 +4440,11 @@
       <c r="A101" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B101" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="C101" s="113"/>
-      <c r="D101" s="114"/>
+      <c r="B101" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="C101" s="117"/>
+      <c r="D101" s="118"/>
       <c r="E101" s="48"/>
       <c r="F101" s="49"/>
       <c r="G101" s="50"/>
@@ -4285,11 +4462,15 @@
       <c r="A102" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B102" s="115" t="s">
-        <v>75</v>
-      </c>
-      <c r="C102" s="116"/>
-      <c r="D102" s="117"/>
+      <c r="B102" s="219" t="s">
+        <v>109</v>
+      </c>
+      <c r="C102" s="220" t="s">
+        <v>110</v>
+      </c>
+      <c r="D102" s="221" t="s">
+        <v>112</v>
+      </c>
       <c r="E102" s="51"/>
       <c r="F102" s="45"/>
       <c r="G102" s="46"/>
@@ -4484,78 +4665,41 @@
       <c r="P112" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="118">
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B26:F27"/>
-    <mergeCell ref="G26:P27"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="G58:N58"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
+  <mergeCells count="82">
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B18:P18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="G19:P19"/>
+    <mergeCell ref="B20:P20"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:P25"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:P10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G13:P13"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="B21:P21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:P22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:P24"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="C14:P14"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:P17"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="J6:K6"/>
@@ -4567,44 +4711,46 @@
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="M8:P8"/>
     <mergeCell ref="J7:M7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:P10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G13:P13"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="B21:P21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G22:P22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:P24"/>
-    <mergeCell ref="B25:P25"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B18:P18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="G19:P19"/>
-    <mergeCell ref="B20:P20"/>
-    <mergeCell ref="C14:P14"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:P17"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="G58:N58"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B26:F27"/>
+    <mergeCell ref="G26:P27"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B67:D67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4612,7 +4758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE54FB90-7D9E-467C-8724-1EBEEF7A282C}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
@@ -4642,11 +4788,11 @@
       <c r="A4" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="198" t="s">
+      <c r="B4" s="204" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="199"/>
-      <c r="D4" s="200"/>
+      <c r="C4" s="205"/>
+      <c r="D4" s="206"/>
       <c r="E4" s="84"/>
       <c r="F4" s="83" t="s">
         <v>85</v>
@@ -4659,11 +4805,11 @@
       <c r="A5" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="201" t="s">
+      <c r="B5" s="207" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="202"/>
-      <c r="D5" s="203"/>
+      <c r="C5" s="208"/>
+      <c r="D5" s="209"/>
       <c r="E5" s="84"/>
       <c r="F5" s="87" t="s">
         <v>87</v>
@@ -4676,11 +4822,11 @@
       <c r="A6" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="204" t="s">
+      <c r="B6" s="210" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="205"/>
-      <c r="D6" s="206"/>
+      <c r="C6" s="211"/>
+      <c r="D6" s="212"/>
       <c r="E6" s="84"/>
       <c r="F6" s="90" t="s">
         <v>90</v>
@@ -4693,11 +4839,11 @@
       <c r="A7" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="207" t="s">
+      <c r="B7" s="213" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="208"/>
-      <c r="D7" s="209"/>
+      <c r="C7" s="214"/>
+      <c r="D7" s="215"/>
       <c r="E7" s="84"/>
       <c r="F7" s="93" t="s">
         <v>93</v>
@@ -4710,41 +4856,41 @@
       <c r="A8" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="210" t="s">
+      <c r="B8" s="216" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="211"/>
-      <c r="D8" s="212"/>
+      <c r="C8" s="217"/>
+      <c r="D8" s="218"/>
       <c r="E8" s="84"/>
       <c r="F8" s="96"/>
-      <c r="G8" s="191"/>
+      <c r="G8" s="197"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="194" t="s">
+      <c r="B9" s="200" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="195"/>
-      <c r="D9" s="196"/>
+      <c r="C9" s="201"/>
+      <c r="D9" s="202"/>
       <c r="E9" s="84"/>
       <c r="F9" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="G9" s="192"/>
+      <c r="G9" s="198"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="197" t="s">
+      <c r="B10" s="203" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="195"/>
-      <c r="D10" s="196"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="202"/>
       <c r="F10" s="100"/>
-      <c r="G10" s="193"/>
+      <c r="G10" s="199"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="101"/>
@@ -4778,542 +4924,569 @@
       <c r="A13" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="213" t="s">
+      <c r="B13" s="194" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="214"/>
-      <c r="D13" s="214"/>
-      <c r="E13" s="214"/>
-      <c r="F13" s="215"/>
+      <c r="C13" s="195"/>
+      <c r="D13" s="195"/>
+      <c r="E13" s="195"/>
+      <c r="F13" s="196"/>
       <c r="G13" s="107"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="213" t="s">
+      <c r="B14" s="194" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="214"/>
-      <c r="D14" s="214"/>
-      <c r="E14" s="214"/>
-      <c r="F14" s="215"/>
+      <c r="C14" s="195"/>
+      <c r="D14" s="195"/>
+      <c r="E14" s="195"/>
+      <c r="F14" s="196"/>
       <c r="G14" s="108"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="213" t="s">
+      <c r="B15" s="194" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="214"/>
-      <c r="D15" s="214"/>
-      <c r="E15" s="214"/>
-      <c r="F15" s="215"/>
+      <c r="C15" s="195"/>
+      <c r="D15" s="195"/>
+      <c r="E15" s="195"/>
+      <c r="F15" s="196"/>
       <c r="G15" s="110"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="213" t="s">
+      <c r="B16" s="194" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="214"/>
-      <c r="D16" s="214"/>
-      <c r="E16" s="214"/>
-      <c r="F16" s="215"/>
+      <c r="C16" s="195"/>
+      <c r="D16" s="195"/>
+      <c r="E16" s="195"/>
+      <c r="F16" s="196"/>
       <c r="G16" s="110"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="213" t="s">
+      <c r="B17" s="194" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="214"/>
-      <c r="D17" s="214"/>
-      <c r="E17" s="214"/>
-      <c r="F17" s="215"/>
+      <c r="C17" s="195"/>
+      <c r="D17" s="195"/>
+      <c r="E17" s="195"/>
+      <c r="F17" s="196"/>
       <c r="G17" s="110"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="213" t="s">
+      <c r="B18" s="194" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="214"/>
-      <c r="D18" s="214"/>
-      <c r="E18" s="214"/>
-      <c r="F18" s="215"/>
+      <c r="C18" s="195"/>
+      <c r="D18" s="195"/>
+      <c r="E18" s="195"/>
+      <c r="F18" s="196"/>
       <c r="G18" s="110"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="213" t="s">
+      <c r="B19" s="194" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="214"/>
-      <c r="D19" s="214"/>
-      <c r="E19" s="214"/>
-      <c r="F19" s="215"/>
+      <c r="C19" s="195"/>
+      <c r="D19" s="195"/>
+      <c r="E19" s="195"/>
+      <c r="F19" s="196"/>
       <c r="G19" s="110"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="213" t="s">
+      <c r="B20" s="194" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="214"/>
-      <c r="D20" s="214"/>
-      <c r="E20" s="214"/>
-      <c r="F20" s="215"/>
+      <c r="C20" s="195"/>
+      <c r="D20" s="195"/>
+      <c r="E20" s="195"/>
+      <c r="F20" s="196"/>
       <c r="G20" s="110"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="213" t="s">
+      <c r="B21" s="194" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="214"/>
-      <c r="D21" s="214"/>
-      <c r="E21" s="214"/>
-      <c r="F21" s="215"/>
+      <c r="C21" s="195"/>
+      <c r="D21" s="195"/>
+      <c r="E21" s="195"/>
+      <c r="F21" s="196"/>
       <c r="G21" s="110"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="213" t="s">
+      <c r="B22" s="194" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="214"/>
-      <c r="D22" s="214"/>
-      <c r="E22" s="214"/>
-      <c r="F22" s="215"/>
+      <c r="C22" s="195"/>
+      <c r="D22" s="195"/>
+      <c r="E22" s="195"/>
+      <c r="F22" s="196"/>
       <c r="G22" s="110"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="213" t="s">
+      <c r="B23" s="194" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="214"/>
-      <c r="D23" s="214"/>
-      <c r="E23" s="214"/>
-      <c r="F23" s="215"/>
+      <c r="C23" s="195"/>
+      <c r="D23" s="195"/>
+      <c r="E23" s="195"/>
+      <c r="F23" s="196"/>
       <c r="G23" s="110"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="213" t="s">
+      <c r="B24" s="194" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="214"/>
-      <c r="D24" s="214"/>
-      <c r="E24" s="214"/>
-      <c r="F24" s="215"/>
+      <c r="C24" s="195"/>
+      <c r="D24" s="195"/>
+      <c r="E24" s="195"/>
+      <c r="F24" s="196"/>
       <c r="G24" s="109"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="213" t="s">
+      <c r="B25" s="194" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="214"/>
-      <c r="D25" s="214"/>
-      <c r="E25" s="214"/>
-      <c r="F25" s="215"/>
+      <c r="C25" s="195"/>
+      <c r="D25" s="195"/>
+      <c r="E25" s="195"/>
+      <c r="F25" s="196"/>
       <c r="G25" s="109"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="213" t="s">
+      <c r="B26" s="194" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="214"/>
-      <c r="D26" s="214"/>
-      <c r="E26" s="214"/>
-      <c r="F26" s="215"/>
+      <c r="C26" s="195"/>
+      <c r="D26" s="195"/>
+      <c r="E26" s="195"/>
+      <c r="F26" s="196"/>
       <c r="G26" s="109"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="213" t="s">
+      <c r="B27" s="194" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="214"/>
-      <c r="D27" s="214"/>
-      <c r="E27" s="214"/>
-      <c r="F27" s="215"/>
+      <c r="C27" s="195"/>
+      <c r="D27" s="195"/>
+      <c r="E27" s="195"/>
+      <c r="F27" s="196"/>
       <c r="G27" s="109"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="213" t="s">
+      <c r="B28" s="194" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="214"/>
-      <c r="D28" s="214"/>
-      <c r="E28" s="214"/>
-      <c r="F28" s="215"/>
+      <c r="C28" s="195"/>
+      <c r="D28" s="195"/>
+      <c r="E28" s="195"/>
+      <c r="F28" s="196"/>
       <c r="G28" s="109"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="213" t="s">
+      <c r="B29" s="194" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="214"/>
-      <c r="D29" s="214"/>
-      <c r="E29" s="214"/>
-      <c r="F29" s="215"/>
+      <c r="C29" s="195"/>
+      <c r="D29" s="195"/>
+      <c r="E29" s="195"/>
+      <c r="F29" s="196"/>
       <c r="G29" s="109"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="213" t="s">
+      <c r="B30" s="194" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="214"/>
-      <c r="D30" s="214"/>
-      <c r="E30" s="214"/>
-      <c r="F30" s="215"/>
+      <c r="C30" s="195"/>
+      <c r="D30" s="195"/>
+      <c r="E30" s="195"/>
+      <c r="F30" s="196"/>
       <c r="G30" s="109"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="213" t="s">
+      <c r="B31" s="194" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="214"/>
-      <c r="D31" s="214"/>
-      <c r="E31" s="214"/>
-      <c r="F31" s="215"/>
+      <c r="C31" s="195"/>
+      <c r="D31" s="195"/>
+      <c r="E31" s="195"/>
+      <c r="F31" s="196"/>
       <c r="G31" s="109"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="213" t="s">
+      <c r="B32" s="194" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="214"/>
-      <c r="D32" s="214"/>
-      <c r="E32" s="214"/>
-      <c r="F32" s="215"/>
+      <c r="C32" s="195"/>
+      <c r="D32" s="195"/>
+      <c r="E32" s="195"/>
+      <c r="F32" s="196"/>
       <c r="G32" s="109"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="213" t="s">
+      <c r="B33" s="194" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="214"/>
-      <c r="D33" s="214"/>
-      <c r="E33" s="214"/>
-      <c r="F33" s="215"/>
+      <c r="C33" s="195"/>
+      <c r="D33" s="195"/>
+      <c r="E33" s="195"/>
+      <c r="F33" s="196"/>
       <c r="G33" s="109"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="213" t="s">
+      <c r="B34" s="194" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="214"/>
-      <c r="D34" s="214"/>
-      <c r="E34" s="214"/>
-      <c r="F34" s="215"/>
+      <c r="C34" s="195"/>
+      <c r="D34" s="195"/>
+      <c r="E34" s="195"/>
+      <c r="F34" s="196"/>
       <c r="G34" s="109"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="213" t="s">
+      <c r="B35" s="194" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="214"/>
-      <c r="D35" s="214"/>
-      <c r="E35" s="214"/>
-      <c r="F35" s="215"/>
+      <c r="C35" s="195"/>
+      <c r="D35" s="195"/>
+      <c r="E35" s="195"/>
+      <c r="F35" s="196"/>
       <c r="G35" s="109"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="213" t="s">
+      <c r="B36" s="194" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="214"/>
-      <c r="D36" s="214"/>
-      <c r="E36" s="214"/>
-      <c r="F36" s="215"/>
+      <c r="C36" s="195"/>
+      <c r="D36" s="195"/>
+      <c r="E36" s="195"/>
+      <c r="F36" s="196"/>
       <c r="G36" s="109"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="213" t="s">
+      <c r="B37" s="194" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="214"/>
-      <c r="D37" s="214"/>
-      <c r="E37" s="214"/>
-      <c r="F37" s="215"/>
+      <c r="C37" s="195"/>
+      <c r="D37" s="195"/>
+      <c r="E37" s="195"/>
+      <c r="F37" s="196"/>
       <c r="G37" s="109"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="213" t="s">
+      <c r="B38" s="194" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="214"/>
-      <c r="D38" s="214"/>
-      <c r="E38" s="214"/>
-      <c r="F38" s="215"/>
+      <c r="C38" s="195"/>
+      <c r="D38" s="195"/>
+      <c r="E38" s="195"/>
+      <c r="F38" s="196"/>
       <c r="G38" s="109"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="213" t="s">
+      <c r="B39" s="194" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="214"/>
-      <c r="D39" s="214"/>
-      <c r="E39" s="214"/>
-      <c r="F39" s="215"/>
+      <c r="C39" s="195"/>
+      <c r="D39" s="195"/>
+      <c r="E39" s="195"/>
+      <c r="F39" s="196"/>
       <c r="G39" s="109"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="213" t="s">
+      <c r="B40" s="194" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="214"/>
-      <c r="D40" s="214"/>
-      <c r="E40" s="214"/>
-      <c r="F40" s="215"/>
+      <c r="C40" s="195"/>
+      <c r="D40" s="195"/>
+      <c r="E40" s="195"/>
+      <c r="F40" s="196"/>
       <c r="G40" s="109"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="213" t="s">
+      <c r="B41" s="194" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="214"/>
-      <c r="D41" s="214"/>
-      <c r="E41" s="214"/>
-      <c r="F41" s="215"/>
+      <c r="C41" s="195"/>
+      <c r="D41" s="195"/>
+      <c r="E41" s="195"/>
+      <c r="F41" s="196"/>
       <c r="G41" s="109"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="213" t="s">
+      <c r="B42" s="194" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="214"/>
-      <c r="D42" s="214"/>
-      <c r="E42" s="214"/>
-      <c r="F42" s="215"/>
+      <c r="C42" s="195"/>
+      <c r="D42" s="195"/>
+      <c r="E42" s="195"/>
+      <c r="F42" s="196"/>
       <c r="G42" s="109"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B43" s="213" t="s">
+      <c r="B43" s="194" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="214"/>
-      <c r="D43" s="214"/>
-      <c r="E43" s="214"/>
-      <c r="F43" s="215"/>
+      <c r="C43" s="195"/>
+      <c r="D43" s="195"/>
+      <c r="E43" s="195"/>
+      <c r="F43" s="196"/>
       <c r="G43" s="109"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="213" t="s">
+      <c r="B44" s="194" t="s">
         <v>75</v>
       </c>
-      <c r="C44" s="214"/>
-      <c r="D44" s="214"/>
-      <c r="E44" s="214"/>
-      <c r="F44" s="215"/>
+      <c r="C44" s="195"/>
+      <c r="D44" s="195"/>
+      <c r="E44" s="195"/>
+      <c r="F44" s="196"/>
       <c r="G44" s="109"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B45" s="213" t="s">
+      <c r="B45" s="194" t="s">
         <v>75</v>
       </c>
-      <c r="C45" s="214"/>
-      <c r="D45" s="214"/>
-      <c r="E45" s="214"/>
-      <c r="F45" s="215"/>
+      <c r="C45" s="195"/>
+      <c r="D45" s="195"/>
+      <c r="E45" s="195"/>
+      <c r="F45" s="196"/>
       <c r="G45" s="109"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B46" s="213" t="s">
+      <c r="B46" s="194" t="s">
         <v>75</v>
       </c>
-      <c r="C46" s="214"/>
-      <c r="D46" s="214"/>
-      <c r="E46" s="214"/>
-      <c r="F46" s="215"/>
+      <c r="C46" s="195"/>
+      <c r="D46" s="195"/>
+      <c r="E46" s="195"/>
+      <c r="F46" s="196"/>
       <c r="G46" s="109"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B47" s="213" t="s">
+      <c r="B47" s="194" t="s">
         <v>75</v>
       </c>
-      <c r="C47" s="214"/>
-      <c r="D47" s="214"/>
-      <c r="E47" s="214"/>
-      <c r="F47" s="215"/>
+      <c r="C47" s="195"/>
+      <c r="D47" s="195"/>
+      <c r="E47" s="195"/>
+      <c r="F47" s="196"/>
       <c r="G47" s="109"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B48" s="213" t="s">
+      <c r="B48" s="194" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="214"/>
-      <c r="D48" s="214"/>
-      <c r="E48" s="214"/>
-      <c r="F48" s="215"/>
+      <c r="C48" s="195"/>
+      <c r="D48" s="195"/>
+      <c r="E48" s="195"/>
+      <c r="F48" s="196"/>
       <c r="G48" s="109"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B49" s="213" t="s">
+      <c r="B49" s="194" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="214"/>
-      <c r="D49" s="214"/>
-      <c r="E49" s="214"/>
-      <c r="F49" s="215"/>
+      <c r="C49" s="195"/>
+      <c r="D49" s="195"/>
+      <c r="E49" s="195"/>
+      <c r="F49" s="196"/>
       <c r="G49" s="109"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="213" t="s">
+      <c r="B50" s="194" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="214"/>
-      <c r="D50" s="214"/>
-      <c r="E50" s="214"/>
-      <c r="F50" s="215"/>
+      <c r="C50" s="195"/>
+      <c r="D50" s="195"/>
+      <c r="E50" s="195"/>
+      <c r="F50" s="196"/>
       <c r="G50" s="109"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B51" s="213" t="s">
+      <c r="B51" s="194" t="s">
         <v>75</v>
       </c>
-      <c r="C51" s="214"/>
-      <c r="D51" s="214"/>
-      <c r="E51" s="214"/>
-      <c r="F51" s="215"/>
+      <c r="C51" s="195"/>
+      <c r="D51" s="195"/>
+      <c r="E51" s="195"/>
+      <c r="F51" s="196"/>
       <c r="G51" s="109"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B52" s="213" t="s">
+      <c r="B52" s="194" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="214"/>
-      <c r="D52" s="214"/>
-      <c r="E52" s="214"/>
-      <c r="F52" s="215"/>
+      <c r="C52" s="195"/>
+      <c r="D52" s="195"/>
+      <c r="E52" s="195"/>
+      <c r="F52" s="196"/>
       <c r="G52" s="109"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B53" s="213" t="s">
+      <c r="B53" s="194" t="s">
         <v>75</v>
       </c>
-      <c r="C53" s="214"/>
-      <c r="D53" s="214"/>
-      <c r="E53" s="214"/>
-      <c r="F53" s="215"/>
+      <c r="C53" s="195"/>
+      <c r="D53" s="195"/>
+      <c r="E53" s="195"/>
+      <c r="F53" s="196"/>
       <c r="G53" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
     <mergeCell ref="B48:F48"/>
     <mergeCell ref="B37:F37"/>
     <mergeCell ref="B38:F38"/>
@@ -5326,38 +5499,11 @@
     <mergeCell ref="B45:F45"/>
     <mergeCell ref="B46:F46"/>
     <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B53:F53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/11.11.25.xlsx
+++ b/templates/11.11.25.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\indicaciones_medicas\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA60131-39EF-4F50-B9D1-FF6D10A941C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A028A015-1600-4AAA-9657-1350C38FDDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8F26B026-E952-45BF-A1DB-55563CFCC2D9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8F26B026-E952-45BF-A1DB-55563CFCC2D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicaciones médicas" sheetId="1" r:id="rId1"/>
-    <sheet name="Receta Médica" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
     <definedName name="Arsenal">[1]!Tabla3[NOM_ARTICU]</definedName>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="89">
   <si>
     <t xml:space="preserve">Fecha </t>
   </si>
@@ -270,9 +269,6 @@
     <t>{{VOLUMEN}}</t>
   </si>
   <si>
-    <t>{{DOSIS}}</t>
-  </si>
-  <si>
     <t>SCTm2</t>
   </si>
   <si>
@@ -289,72 +285,6 @@
   </si>
   <si>
     <t>{{VM}}</t>
-  </si>
-  <si>
-    <t>UCI-UTI PEDIATRICA</t>
-  </si>
-  <si>
-    <t>RECETA MÉDICA</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Nombre Médico</t>
-  </si>
-  <si>
-    <t>Nombre Paciente</t>
-  </si>
-  <si>
-    <t>Fono UCIP</t>
-  </si>
-  <si>
-    <t>633651 - 633654</t>
-  </si>
-  <si>
-    <t>N° Ficha clínica</t>
-  </si>
-  <si>
-    <t>Fono Farmacia</t>
-  </si>
-  <si>
-    <t>633610 - 633617</t>
-  </si>
-  <si>
-    <t>Servicio / Cama</t>
-  </si>
-  <si>
-    <t>Días Despacho</t>
-  </si>
-  <si>
-    <t>Peso (kg)</t>
-  </si>
-  <si>
-    <t>Firma Médico</t>
-  </si>
-  <si>
-    <t>Diagnósticos</t>
-  </si>
-  <si>
-    <t>MEDICAMENTOS</t>
-  </si>
-  <si>
-    <t>DOSIS /</t>
-  </si>
-  <si>
-    <t>UNIDAD /</t>
-  </si>
-  <si>
-    <t>VIA DE ADM. /</t>
-  </si>
-  <si>
-    <t>INTERVALO (Hrs) /</t>
-  </si>
-  <si>
-    <t>DIAS DE DESPACHO</t>
-  </si>
-  <si>
-    <t>VALIDACION</t>
   </si>
   <si>
     <t>{{60HOLLIDAY}}</t>
@@ -389,7 +319,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -451,13 +381,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -498,67 +421,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -567,24 +431,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="0"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="32">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -599,28 +451,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -670,19 +500,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -848,451 +665,333 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -1303,186 +1002,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1924,10 +1484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F7F867-996E-4386-BA02-4186311E04F2}">
-  <dimension ref="A1:U112"/>
+  <dimension ref="A1:P112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1948,7 +1508,7 @@
     <col min="14" max="14" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -1965,18 +1525,17 @@
       <c r="N1" s="9"/>
       <c r="O1" s="5"/>
       <c r="P1" s="6"/>
-      <c r="Q1" s="3"/>
-    </row>
-    <row r="2" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
-      <c r="C2" s="135" t="s">
+      <c r="C2" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
@@ -1986,17 +1545,16 @@
       <c r="N2" s="11"/>
       <c r="O2" s="3"/>
       <c r="P2" s="4"/>
-      <c r="Q2" s="3"/>
-    </row>
-    <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
-      <c r="C3" s="135" t="s">
+      <c r="C3" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="12"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
@@ -2007,9 +1565,8 @@
       <c r="N3" s="11"/>
       <c r="O3" s="3"/>
       <c r="P3" s="4"/>
-      <c r="Q3" s="3"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -2026,9 +1583,8 @@
       <c r="N4" s="11"/>
       <c r="O4" s="3"/>
       <c r="P4" s="4"/>
-      <c r="Q4" s="3"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -2045,40 +1601,39 @@
       <c r="N5" s="14"/>
       <c r="O5" s="1"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="172" t="s">
+      <c r="D6" s="60" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="172" t="s">
+      <c r="F6" s="60" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="173" t="s">
+      <c r="H6" s="61" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="174" t="s">
+      <c r="J6" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="175"/>
+      <c r="K6" s="96"/>
       <c r="L6" s="44" t="s">
         <v>8</v>
       </c>
@@ -2088,172 +1643,166 @@
       <c r="N6" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="176" t="s">
+      <c r="O6" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="P6" s="177"/>
-      <c r="Q6" s="3"/>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P6" s="93"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="178" t="s">
+      <c r="B7" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
       <c r="I7" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="176" t="s">
+      <c r="J7" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="177"/>
-      <c r="L7" s="177"/>
-      <c r="M7" s="177"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="93"/>
       <c r="N7" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="180" t="s">
+      <c r="O7" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="P7" s="177"/>
-      <c r="Q7" s="3"/>
-    </row>
-    <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="138" t="s">
+      <c r="P7" s="93"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="177"/>
+      <c r="B8" s="93"/>
       <c r="C8" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="181" t="s">
+      <c r="E8" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="182" t="s">
+      <c r="F8" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="139" t="s">
+      <c r="G8" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="179"/>
-      <c r="I8" s="138" t="s">
+      <c r="H8" s="94"/>
+      <c r="I8" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="177"/>
-      <c r="K8" s="87" t="s">
+      <c r="J8" s="93"/>
+      <c r="K8" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="L8" s="183" t="s">
+      <c r="L8" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" s="127" t="s">
         <v>76</v>
       </c>
-      <c r="M8" s="184" t="s">
+      <c r="N8" s="96"/>
+      <c r="O8" s="96"/>
+      <c r="P8" s="96"/>
+    </row>
+    <row r="9" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A9" s="92" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="93"/>
+      <c r="C9" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="92" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="93"/>
+      <c r="C10" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="95" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="96"/>
+      <c r="C11" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="97" t="s">
         <v>77</v>
       </c>
-      <c r="N8" s="175"/>
-      <c r="O8" s="175"/>
-      <c r="P8" s="175"/>
-      <c r="Q8" s="48"/>
-    </row>
-    <row r="9" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="138" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="177"/>
-      <c r="C9" s="111" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="179"/>
-      <c r="E9" s="179"/>
-      <c r="F9" s="179"/>
-      <c r="G9" s="179"/>
-      <c r="H9" s="179"/>
-      <c r="I9" s="179"/>
-      <c r="J9" s="179"/>
-      <c r="K9" s="179"/>
-      <c r="L9" s="185"/>
-      <c r="M9" s="186"/>
-      <c r="N9" s="177"/>
-      <c r="O9" s="177"/>
-      <c r="P9" s="177"/>
-      <c r="Q9" s="49"/>
-    </row>
-    <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="138" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="177"/>
-      <c r="C10" s="111" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="179"/>
-      <c r="E10" s="179"/>
-      <c r="F10" s="179"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="179"/>
-      <c r="J10" s="179"/>
-      <c r="K10" s="179"/>
-      <c r="L10" s="179"/>
-      <c r="M10" s="179"/>
-      <c r="N10" s="179"/>
-      <c r="O10" s="179"/>
-      <c r="P10" s="179"/>
-      <c r="Q10" s="3"/>
-    </row>
-    <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="187" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="175"/>
-      <c r="C11" s="88" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="188" t="s">
+      <c r="E11" s="96"/>
+      <c r="F11" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="175"/>
-      <c r="F11" s="181" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" s="189"/>
-      <c r="H11" s="177"/>
-      <c r="I11" s="190"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="66"/>
       <c r="J11" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="191" t="s">
+      <c r="K11" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="L11" s="192" t="s">
+      <c r="L11" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="M11" s="193" t="s">
+      <c r="M11" s="69" t="s">
         <v>54</v>
       </c>
       <c r="N11" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="O11" s="194" t="s">
-        <v>80</v>
-      </c>
-      <c r="P11" s="179"/>
-      <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="171"/>
-      <c r="B12" s="118"/>
-      <c r="C12" s="195" t="s">
-        <v>104</v>
+      <c r="O11" s="114" t="s">
+        <v>79</v>
+      </c>
+      <c r="P11" s="94"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="115"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="70" t="s">
+        <v>81</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -2268,9 +1817,8 @@
       <c r="N12" s="17"/>
       <c r="O12" s="1"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="3"/>
-    </row>
-    <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>29</v>
       </c>
@@ -2281,42 +1829,40 @@
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="118"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="118"/>
-      <c r="O13" s="118"/>
-      <c r="P13" s="119"/>
-      <c r="Q13" s="3"/>
-    </row>
-    <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G13" s="98"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="100"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="130" t="s">
+      <c r="C14" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="112"/>
-      <c r="K14" s="112"/>
-      <c r="L14" s="112"/>
-      <c r="M14" s="112"/>
-      <c r="N14" s="112"/>
-      <c r="O14" s="112"/>
-      <c r="P14" s="113"/>
-      <c r="Q14" s="3"/>
-    </row>
-    <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="87"/>
+      <c r="N14" s="87"/>
+      <c r="O14" s="87"/>
+      <c r="P14" s="88"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
       <c r="B15" s="21" t="s">
         <v>58</v>
@@ -2330,13 +1876,13 @@
       <c r="E15" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="48" t="s">
         <v>61</v>
       </c>
       <c r="G15" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="50" t="s">
+      <c r="H15" s="48" t="s">
         <v>62</v>
       </c>
       <c r="I15" s="21" t="s">
@@ -2351,19 +1897,18 @@
       <c r="N15" s="21"/>
       <c r="O15" s="45"/>
       <c r="P15" s="45"/>
-      <c r="Q15" s="3"/>
-    </row>
-    <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
       <c r="B16" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="131" t="s">
+      <c r="C16" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="132"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="133"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="118"/>
       <c r="G16" s="23"/>
       <c r="H16" s="24"/>
       <c r="I16" s="40" t="s">
@@ -2378,254 +1923,250 @@
       <c r="N16" s="24"/>
       <c r="O16" s="47"/>
       <c r="P16" s="47"/>
-      <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="139"/>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="126"/>
       <c r="B17" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="134" t="s">
+      <c r="C17" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="132"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="132"/>
-      <c r="H17" s="132"/>
-      <c r="I17" s="132"/>
-      <c r="J17" s="132"/>
-      <c r="K17" s="132"/>
-      <c r="L17" s="132"/>
-      <c r="M17" s="132"/>
-      <c r="N17" s="132"/>
-      <c r="O17" s="132"/>
-      <c r="P17" s="133"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="140"/>
-      <c r="B18" s="104" t="s">
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="117"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="117"/>
+      <c r="P17" s="118"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="129"/>
+      <c r="B18" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="105"/>
-      <c r="L18" s="105"/>
-      <c r="M18" s="105"/>
-      <c r="N18" s="105"/>
-      <c r="O18" s="105"/>
-      <c r="P18" s="106"/>
-    </row>
-    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="81"/>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="107" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="108"/>
-      <c r="I19" s="108"/>
-      <c r="J19" s="108"/>
-      <c r="K19" s="108"/>
-      <c r="L19" s="108"/>
-      <c r="M19" s="108"/>
-      <c r="N19" s="108"/>
-      <c r="O19" s="108"/>
-      <c r="P19" s="109"/>
-    </row>
-    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="83"/>
+      <c r="P19" s="84"/>
+    </row>
+    <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
-      <c r="B20" s="111"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="112"/>
-      <c r="K20" s="112"/>
-      <c r="L20" s="112"/>
-      <c r="M20" s="112"/>
-      <c r="N20" s="112"/>
-      <c r="O20" s="112"/>
-      <c r="P20" s="113"/>
-      <c r="S20" s="93"/>
-      <c r="T20" s="94"/>
-      <c r="U20" s="95"/>
-    </row>
-    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="87"/>
+      <c r="P20" s="88"/>
+    </row>
+    <row r="21" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="120" t="s">
+      <c r="B21" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="118"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="118"/>
-      <c r="K21" s="118"/>
-      <c r="L21" s="118"/>
-      <c r="M21" s="118"/>
-      <c r="N21" s="118"/>
-      <c r="O21" s="118"/>
-      <c r="P21" s="119"/>
-    </row>
-    <row r="22" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="99"/>
+      <c r="O21" s="99"/>
+      <c r="P21" s="100"/>
+    </row>
+    <row r="22" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="121" t="s">
+      <c r="B22" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="122"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="124"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="108"/>
-      <c r="K22" s="108"/>
-      <c r="L22" s="108"/>
-      <c r="M22" s="108"/>
-      <c r="N22" s="108"/>
-      <c r="O22" s="108"/>
-      <c r="P22" s="109"/>
-    </row>
-    <row r="23" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="104"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="83"/>
+      <c r="L22" s="83"/>
+      <c r="M22" s="83"/>
+      <c r="N22" s="83"/>
+      <c r="O22" s="83"/>
+      <c r="P22" s="84"/>
+    </row>
+    <row r="23" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="125" t="s">
+      <c r="B23" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="126"/>
-      <c r="D23" s="126"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="99" t="s">
-        <v>110</v>
-      </c>
-      <c r="H23" s="101"/>
-      <c r="I23" s="51" t="s">
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" s="76"/>
+      <c r="I23" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="J23" s="85"/>
-      <c r="K23" s="99" t="s">
-        <v>111</v>
-      </c>
-      <c r="L23" s="100"/>
-      <c r="M23" s="52" t="s">
+      <c r="J23" s="52"/>
+      <c r="K23" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="L23" s="75"/>
+      <c r="M23" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="N23" s="101"/>
-      <c r="O23" s="102"/>
-      <c r="P23" s="103"/>
-    </row>
-    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N23" s="76"/>
+      <c r="O23" s="77"/>
+      <c r="P23" s="78"/>
+    </row>
+    <row r="24" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
-      <c r="B24" s="128"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="129"/>
-      <c r="H24" s="129"/>
-      <c r="I24" s="112"/>
-      <c r="J24" s="129"/>
-      <c r="K24" s="112"/>
-      <c r="L24" s="112"/>
-      <c r="M24" s="112"/>
-      <c r="N24" s="112"/>
-      <c r="O24" s="112"/>
-      <c r="P24" s="113"/>
-    </row>
-    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="86" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" s="114" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="115"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="116"/>
-      <c r="H25" s="116"/>
-      <c r="I25" s="116"/>
-      <c r="J25" s="116"/>
-      <c r="K25" s="116"/>
-      <c r="L25" s="116"/>
-      <c r="M25" s="116"/>
-      <c r="N25" s="116"/>
-      <c r="O25" s="116"/>
-      <c r="P25" s="116"/>
-    </row>
-    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="110"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="87"/>
+      <c r="N24" s="87"/>
+      <c r="O24" s="87"/>
+      <c r="P24" s="88"/>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="89" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="91"/>
+      <c r="L25" s="91"/>
+      <c r="M25" s="91"/>
+      <c r="N25" s="91"/>
+      <c r="O25" s="91"/>
+      <c r="P25" s="91"/>
+    </row>
+    <row r="26" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
-      <c r="B26" s="141" t="s">
+      <c r="B26" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="122"/>
-      <c r="D26" s="122"/>
-      <c r="E26" s="122"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="136"/>
-      <c r="I26" s="136"/>
-      <c r="J26" s="136"/>
-      <c r="K26" s="136"/>
-      <c r="L26" s="136"/>
-      <c r="M26" s="136"/>
-      <c r="N26" s="136"/>
-      <c r="O26" s="136"/>
-      <c r="P26" s="144"/>
-    </row>
-    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C26" s="104"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="132"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="121"/>
+      <c r="J26" s="121"/>
+      <c r="K26" s="121"/>
+      <c r="L26" s="121"/>
+      <c r="M26" s="121"/>
+      <c r="N26" s="121"/>
+      <c r="O26" s="121"/>
+      <c r="P26" s="133"/>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="31"/>
-      <c r="B27" s="142"/>
-      <c r="C27" s="118"/>
-      <c r="D27" s="118"/>
-      <c r="E27" s="118"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="145"/>
-      <c r="H27" s="136"/>
-      <c r="I27" s="136"/>
-      <c r="J27" s="136"/>
-      <c r="K27" s="136"/>
-      <c r="L27" s="136"/>
-      <c r="M27" s="136"/>
-      <c r="N27" s="136"/>
-      <c r="O27" s="136"/>
-      <c r="P27" s="144"/>
-    </row>
-    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="53" t="s">
+      <c r="B27" s="131"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="134"/>
+      <c r="H27" s="121"/>
+      <c r="I27" s="121"/>
+      <c r="J27" s="121"/>
+      <c r="K27" s="121"/>
+      <c r="L27" s="121"/>
+      <c r="M27" s="121"/>
+      <c r="N27" s="121"/>
+      <c r="O27" s="121"/>
+      <c r="P27" s="133"/>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="96" t="s">
+      <c r="B28" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="97"/>
-      <c r="D28" s="98"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="73"/>
       <c r="E28" s="32"/>
       <c r="F28" s="33"/>
       <c r="G28" s="34"/>
@@ -2639,18 +2180,18 @@
       <c r="O28" s="34"/>
       <c r="P28" s="33"/>
     </row>
-    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="C29" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29" s="92" t="s">
-        <v>109</v>
+      <c r="B29" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="E29" s="35"/>
       <c r="F29" s="35"/>
@@ -2665,15 +2206,15 @@
       <c r="O29" s="37"/>
       <c r="P29" s="37"/>
     </row>
-    <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="53" t="s">
+    <row r="30" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="96" t="s">
+      <c r="B30" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="97"/>
-      <c r="D30" s="98"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="73"/>
       <c r="E30" s="38"/>
       <c r="F30" s="39"/>
       <c r="G30" s="40"/>
@@ -2687,18 +2228,18 @@
       <c r="O30" s="24"/>
       <c r="P30" s="24"/>
     </row>
-    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="D31" s="92" t="s">
-        <v>109</v>
+      <c r="B31" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="E31" s="41"/>
       <c r="F31" s="35"/>
@@ -2713,15 +2254,15 @@
       <c r="O31" s="37"/>
       <c r="P31" s="37"/>
     </row>
-    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="53" t="s">
+    <row r="32" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="96" t="s">
+      <c r="B32" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="97"/>
-      <c r="D32" s="98"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="73"/>
       <c r="E32" s="38"/>
       <c r="F32" s="39"/>
       <c r="G32" s="40"/>
@@ -2739,14 +2280,14 @@
       <c r="A33" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="D33" s="92" t="s">
-        <v>109</v>
+      <c r="B33" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="E33" s="41"/>
       <c r="F33" s="35"/>
@@ -2762,14 +2303,14 @@
       <c r="P33" s="37"/>
     </row>
     <row r="34" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="53" t="s">
+      <c r="A34" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="96" t="s">
+      <c r="B34" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="97"/>
-      <c r="D34" s="98"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="73"/>
       <c r="E34" s="38"/>
       <c r="F34" s="39"/>
       <c r="G34" s="40"/>
@@ -2787,14 +2328,14 @@
       <c r="A35" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="D35" s="92" t="s">
-        <v>109</v>
+      <c r="B35" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="E35" s="41"/>
       <c r="F35" s="35"/>
@@ -2810,14 +2351,14 @@
       <c r="P35" s="37"/>
     </row>
     <row r="36" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="53" t="s">
+      <c r="A36" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="96" t="s">
+      <c r="B36" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="97"/>
-      <c r="D36" s="98"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="73"/>
       <c r="E36" s="38"/>
       <c r="F36" s="39"/>
       <c r="G36" s="40"/>
@@ -2835,14 +2376,14 @@
       <c r="A37" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="D37" s="92" t="s">
-        <v>109</v>
+      <c r="B37" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="E37" s="41"/>
       <c r="F37" s="35"/>
@@ -2858,14 +2399,14 @@
       <c r="P37" s="37"/>
     </row>
     <row r="38" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="53" t="s">
+      <c r="A38" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="96" t="s">
+      <c r="B38" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="97"/>
-      <c r="D38" s="98"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="73"/>
       <c r="E38" s="38"/>
       <c r="F38" s="39"/>
       <c r="G38" s="40"/>
@@ -2883,14 +2424,14 @@
       <c r="A39" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="C39" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="D39" s="92" t="s">
-        <v>109</v>
+      <c r="B39" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="E39" s="41"/>
       <c r="F39" s="35"/>
@@ -2906,14 +2447,14 @@
       <c r="P39" s="37"/>
     </row>
     <row r="40" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="53" t="s">
+      <c r="A40" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B40" s="96" t="s">
+      <c r="B40" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="97"/>
-      <c r="D40" s="98"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="73"/>
       <c r="E40" s="38"/>
       <c r="F40" s="39"/>
       <c r="G40" s="40"/>
@@ -2931,14 +2472,14 @@
       <c r="A41" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="C41" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="D41" s="92" t="s">
-        <v>109</v>
+      <c r="B41" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="E41" s="41"/>
       <c r="F41" s="35"/>
@@ -2954,14 +2495,14 @@
       <c r="P41" s="37"/>
     </row>
     <row r="42" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="53" t="s">
+      <c r="A42" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="96" t="s">
+      <c r="B42" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="97"/>
-      <c r="D42" s="98"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="73"/>
       <c r="E42" s="38"/>
       <c r="F42" s="39"/>
       <c r="G42" s="40"/>
@@ -2979,14 +2520,14 @@
       <c r="A43" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B43" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="C43" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="D43" s="92" t="s">
-        <v>109</v>
+      <c r="B43" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="E43" s="41"/>
       <c r="F43" s="35"/>
@@ -3002,14 +2543,14 @@
       <c r="P43" s="37"/>
     </row>
     <row r="44" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="53" t="s">
+      <c r="A44" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B44" s="96" t="s">
+      <c r="B44" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="97"/>
-      <c r="D44" s="98"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="73"/>
       <c r="E44" s="38"/>
       <c r="F44" s="39"/>
       <c r="G44" s="40"/>
@@ -3027,14 +2568,14 @@
       <c r="A45" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B45" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="C45" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="D45" s="92" t="s">
-        <v>109</v>
+      <c r="B45" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="E45" s="41"/>
       <c r="F45" s="35"/>
@@ -3050,14 +2591,14 @@
       <c r="P45" s="37"/>
     </row>
     <row r="46" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="53" t="s">
+      <c r="A46" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B46" s="96" t="s">
+      <c r="B46" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="97"/>
-      <c r="D46" s="98"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="73"/>
       <c r="E46" s="38"/>
       <c r="F46" s="39"/>
       <c r="G46" s="40"/>
@@ -3075,14 +2616,14 @@
       <c r="A47" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="C47" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="D47" s="92" t="s">
-        <v>109</v>
+      <c r="B47" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="E47" s="41"/>
       <c r="F47" s="35"/>
@@ -3098,14 +2639,14 @@
       <c r="P47" s="37"/>
     </row>
     <row r="48" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="53" t="s">
+      <c r="A48" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B48" s="96" t="s">
+      <c r="B48" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C48" s="97"/>
-      <c r="D48" s="98"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="73"/>
       <c r="E48" s="38"/>
       <c r="F48" s="39"/>
       <c r="G48" s="40"/>
@@ -3123,14 +2664,14 @@
       <c r="A49" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B49" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="C49" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="D49" s="92" t="s">
-        <v>109</v>
+      <c r="B49" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="E49" s="41"/>
       <c r="F49" s="35"/>
@@ -3146,14 +2687,14 @@
       <c r="P49" s="37"/>
     </row>
     <row r="50" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="53" t="s">
+      <c r="A50" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B50" s="96" t="s">
+      <c r="B50" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C50" s="97"/>
-      <c r="D50" s="98"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="73"/>
       <c r="E50" s="38"/>
       <c r="F50" s="39"/>
       <c r="G50" s="40"/>
@@ -3171,14 +2712,14 @@
       <c r="A51" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B51" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="C51" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="D51" s="92" t="s">
-        <v>109</v>
+      <c r="B51" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="42"/>
@@ -3194,14 +2735,14 @@
       <c r="P51" s="37"/>
     </row>
     <row r="52" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="53" t="s">
+      <c r="A52" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B52" s="96" t="s">
+      <c r="B52" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C52" s="97"/>
-      <c r="D52" s="98"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="73"/>
       <c r="E52" s="38"/>
       <c r="F52" s="39"/>
       <c r="G52" s="40"/>
@@ -3219,14 +2760,14 @@
       <c r="A53" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B53" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="C53" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="D53" s="92" t="s">
-        <v>109</v>
+      <c r="B53" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D53" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="E53" s="41"/>
       <c r="F53" s="35"/>
@@ -3242,14 +2783,14 @@
       <c r="P53" s="37"/>
     </row>
     <row r="54" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="53" t="s">
+      <c r="A54" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B54" s="96" t="s">
+      <c r="B54" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C54" s="97"/>
-      <c r="D54" s="98"/>
+      <c r="C54" s="72"/>
+      <c r="D54" s="73"/>
       <c r="E54" s="38"/>
       <c r="F54" s="39"/>
       <c r="G54" s="40"/>
@@ -3267,14 +2808,14 @@
       <c r="A55" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B55" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="C55" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="D55" s="92" t="s">
-        <v>109</v>
+      <c r="B55" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D55" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="E55" s="41"/>
       <c r="F55" s="35"/>
@@ -3290,14 +2831,14 @@
       <c r="P55" s="37"/>
     </row>
     <row r="56" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="53" t="s">
+      <c r="A56" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="96" t="s">
+      <c r="B56" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C56" s="97"/>
-      <c r="D56" s="98"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="73"/>
       <c r="E56" s="38"/>
       <c r="F56" s="39"/>
       <c r="G56" s="40"/>
@@ -3315,14 +2856,14 @@
       <c r="A57" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="C57" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="D57" s="92" t="s">
-        <v>109</v>
+      <c r="B57" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="E57" s="41"/>
       <c r="F57" s="35"/>
@@ -3341,33 +2882,33 @@
       <c r="A58" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B58" s="138"/>
-      <c r="C58" s="105"/>
-      <c r="D58" s="106"/>
+      <c r="B58" s="92"/>
+      <c r="C58" s="80"/>
+      <c r="D58" s="81"/>
       <c r="E58" s="43"/>
       <c r="F58" s="44"/>
-      <c r="G58" s="137" t="s">
+      <c r="G58" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="H58" s="105"/>
-      <c r="I58" s="105"/>
-      <c r="J58" s="105"/>
-      <c r="K58" s="105"/>
-      <c r="L58" s="105"/>
-      <c r="M58" s="105"/>
-      <c r="N58" s="105"/>
+      <c r="H58" s="80"/>
+      <c r="I58" s="80"/>
+      <c r="J58" s="80"/>
+      <c r="K58" s="80"/>
+      <c r="L58" s="80"/>
+      <c r="M58" s="80"/>
+      <c r="N58" s="80"/>
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
     </row>
     <row r="59" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="53" t="s">
+      <c r="A59" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B59" s="96" t="s">
+      <c r="B59" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C59" s="97"/>
-      <c r="D59" s="98"/>
+      <c r="C59" s="72"/>
+      <c r="D59" s="73"/>
       <c r="E59" s="38"/>
       <c r="F59" s="39"/>
       <c r="G59" s="40"/>
@@ -3385,14 +2926,14 @@
       <c r="A60" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B60" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="C60" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="D60" s="92" t="s">
-        <v>109</v>
+      <c r="B60" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="E60" s="41"/>
       <c r="F60" s="35"/>
@@ -3408,14 +2949,14 @@
       <c r="P60" s="37"/>
     </row>
     <row r="61" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="53" t="s">
+      <c r="A61" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B61" s="96" t="s">
+      <c r="B61" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C61" s="97"/>
-      <c r="D61" s="98"/>
+      <c r="C61" s="72"/>
+      <c r="D61" s="73"/>
       <c r="E61" s="38"/>
       <c r="F61" s="39"/>
       <c r="G61" s="40"/>
@@ -3433,14 +2974,14 @@
       <c r="A62" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B62" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="C62" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="D62" s="92" t="s">
-        <v>109</v>
+      <c r="B62" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D62" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="E62" s="41"/>
       <c r="F62" s="35"/>
@@ -3456,14 +2997,14 @@
       <c r="P62" s="37"/>
     </row>
     <row r="63" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="53" t="s">
+      <c r="A63" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B63" s="96" t="s">
+      <c r="B63" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C63" s="97"/>
-      <c r="D63" s="98"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="73"/>
       <c r="E63" s="38"/>
       <c r="F63" s="39"/>
       <c r="G63" s="40"/>
@@ -3481,14 +3022,14 @@
       <c r="A64" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B64" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="C64" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="D64" s="92" t="s">
-        <v>109</v>
+      <c r="B64" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D64" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="E64" s="41"/>
       <c r="F64" s="35"/>
@@ -3504,14 +3045,14 @@
       <c r="P64" s="37"/>
     </row>
     <row r="65" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="53" t="s">
+      <c r="A65" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="96" t="s">
+      <c r="B65" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C65" s="97"/>
-      <c r="D65" s="98"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="73"/>
       <c r="E65" s="38"/>
       <c r="F65" s="39"/>
       <c r="G65" s="40"/>
@@ -3529,14 +3070,14 @@
       <c r="A66" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B66" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="C66" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="D66" s="92" t="s">
-        <v>109</v>
+      <c r="B66" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C66" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D66" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="E66" s="41"/>
       <c r="F66" s="35"/>
@@ -3552,14 +3093,14 @@
       <c r="P66" s="37"/>
     </row>
     <row r="67" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="53" t="s">
+      <c r="A67" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B67" s="96" t="s">
+      <c r="B67" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C67" s="97"/>
-      <c r="D67" s="98"/>
+      <c r="C67" s="72"/>
+      <c r="D67" s="73"/>
       <c r="E67" s="38"/>
       <c r="F67" s="39"/>
       <c r="G67" s="40"/>
@@ -3577,14 +3118,14 @@
       <c r="A68" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="C68" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="D68" s="92" t="s">
-        <v>109</v>
+      <c r="B68" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D68" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="E68" s="41"/>
       <c r="F68" s="35"/>
@@ -3600,14 +3141,14 @@
       <c r="P68" s="37"/>
     </row>
     <row r="69" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="53" t="s">
+      <c r="A69" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B69" s="96" t="s">
+      <c r="B69" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C69" s="97"/>
-      <c r="D69" s="98"/>
+      <c r="C69" s="72"/>
+      <c r="D69" s="73"/>
       <c r="E69" s="38"/>
       <c r="F69" s="39"/>
       <c r="G69" s="40"/>
@@ -3625,14 +3166,14 @@
       <c r="A70" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B70" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="C70" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="D70" s="92" t="s">
-        <v>109</v>
+      <c r="B70" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C70" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D70" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="E70" s="41"/>
       <c r="F70" s="35"/>
@@ -3648,14 +3189,14 @@
       <c r="P70" s="37"/>
     </row>
     <row r="71" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="53" t="s">
+      <c r="A71" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B71" s="96" t="s">
+      <c r="B71" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="97"/>
-      <c r="D71" s="98"/>
+      <c r="C71" s="72"/>
+      <c r="D71" s="73"/>
       <c r="E71" s="38"/>
       <c r="F71" s="39"/>
       <c r="G71" s="40"/>
@@ -3673,14 +3214,14 @@
       <c r="A72" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B72" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="C72" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="D72" s="92" t="s">
-        <v>109</v>
+      <c r="B72" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C72" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D72" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="E72" s="41"/>
       <c r="F72" s="35"/>
@@ -3696,14 +3237,14 @@
       <c r="P72" s="37"/>
     </row>
     <row r="73" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="53" t="s">
+      <c r="A73" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="96" t="s">
+      <c r="B73" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C73" s="97"/>
-      <c r="D73" s="98"/>
+      <c r="C73" s="72"/>
+      <c r="D73" s="73"/>
       <c r="E73" s="38"/>
       <c r="F73" s="39"/>
       <c r="G73" s="40"/>
@@ -3721,14 +3262,14 @@
       <c r="A74" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="C74" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="D74" s="92" t="s">
-        <v>109</v>
+      <c r="B74" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C74" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D74" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="E74" s="41"/>
       <c r="F74" s="35"/>
@@ -3744,14 +3285,14 @@
       <c r="P74" s="37"/>
     </row>
     <row r="75" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="53" t="s">
+      <c r="A75" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B75" s="96" t="s">
+      <c r="B75" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C75" s="97"/>
-      <c r="D75" s="98"/>
+      <c r="C75" s="72"/>
+      <c r="D75" s="73"/>
       <c r="E75" s="38"/>
       <c r="F75" s="39"/>
       <c r="G75" s="40"/>
@@ -3769,14 +3310,14 @@
       <c r="A76" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B76" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="C76" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="D76" s="92" t="s">
-        <v>109</v>
+      <c r="B76" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D76" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="E76" s="41"/>
       <c r="F76" s="35"/>
@@ -3792,14 +3333,14 @@
       <c r="P76" s="37"/>
     </row>
     <row r="77" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="53" t="s">
+      <c r="A77" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B77" s="96" t="s">
+      <c r="B77" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C77" s="97"/>
-      <c r="D77" s="98"/>
+      <c r="C77" s="72"/>
+      <c r="D77" s="73"/>
       <c r="E77" s="38"/>
       <c r="F77" s="39"/>
       <c r="G77" s="40"/>
@@ -3817,14 +3358,14 @@
       <c r="A78" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B78" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="C78" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="D78" s="92" t="s">
-        <v>109</v>
+      <c r="B78" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C78" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D78" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="E78" s="41"/>
       <c r="F78" s="35"/>
@@ -3840,14 +3381,14 @@
       <c r="P78" s="37"/>
     </row>
     <row r="79" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="53" t="s">
+      <c r="A79" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B79" s="96" t="s">
+      <c r="B79" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C79" s="97"/>
-      <c r="D79" s="98"/>
+      <c r="C79" s="72"/>
+      <c r="D79" s="73"/>
       <c r="E79" s="38"/>
       <c r="F79" s="39"/>
       <c r="G79" s="40"/>
@@ -3865,14 +3406,14 @@
       <c r="A80" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B80" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="C80" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="D80" s="92" t="s">
-        <v>109</v>
+      <c r="B80" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D80" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="E80" s="41"/>
       <c r="F80" s="35"/>
@@ -3888,14 +3429,14 @@
       <c r="P80" s="37"/>
     </row>
     <row r="81" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="53" t="s">
+      <c r="A81" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B81" s="96" t="s">
+      <c r="B81" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C81" s="97"/>
-      <c r="D81" s="98"/>
+      <c r="C81" s="72"/>
+      <c r="D81" s="73"/>
       <c r="E81" s="38"/>
       <c r="F81" s="39"/>
       <c r="G81" s="40"/>
@@ -3913,14 +3454,14 @@
       <c r="A82" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B82" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="C82" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="D82" s="92" t="s">
-        <v>109</v>
+      <c r="B82" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C82" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D82" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="E82" s="41"/>
       <c r="F82" s="35"/>
@@ -3936,14 +3477,14 @@
       <c r="P82" s="37"/>
     </row>
     <row r="83" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="53" t="s">
+      <c r="A83" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B83" s="96" t="s">
+      <c r="B83" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C83" s="97"/>
-      <c r="D83" s="98"/>
+      <c r="C83" s="72"/>
+      <c r="D83" s="73"/>
       <c r="E83" s="38"/>
       <c r="F83" s="39"/>
       <c r="G83" s="40"/>
@@ -3961,14 +3502,14 @@
       <c r="A84" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B84" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="C84" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="D84" s="92" t="s">
-        <v>109</v>
+      <c r="B84" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C84" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D84" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="E84" s="41"/>
       <c r="F84" s="35"/>
@@ -3984,14 +3525,14 @@
       <c r="P84" s="37"/>
     </row>
     <row r="85" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="53" t="s">
+      <c r="A85" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B85" s="96" t="s">
+      <c r="B85" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C85" s="97"/>
-      <c r="D85" s="98"/>
+      <c r="C85" s="72"/>
+      <c r="D85" s="73"/>
       <c r="E85" s="38"/>
       <c r="F85" s="39"/>
       <c r="G85" s="40"/>
@@ -4009,14 +3550,14 @@
       <c r="A86" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B86" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="C86" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="D86" s="92" t="s">
-        <v>109</v>
+      <c r="B86" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C86" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D86" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="E86" s="41"/>
       <c r="F86" s="35"/>
@@ -4032,14 +3573,14 @@
       <c r="P86" s="37"/>
     </row>
     <row r="87" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="53" t="s">
+      <c r="A87" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B87" s="96" t="s">
+      <c r="B87" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C87" s="97"/>
-      <c r="D87" s="98"/>
+      <c r="C87" s="72"/>
+      <c r="D87" s="73"/>
       <c r="E87" s="38"/>
       <c r="F87" s="39"/>
       <c r="G87" s="40"/>
@@ -4057,14 +3598,14 @@
       <c r="A88" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B88" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="C88" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="D88" s="92" t="s">
-        <v>109</v>
+      <c r="B88" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C88" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D88" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="E88" s="41"/>
       <c r="F88" s="35"/>
@@ -4080,14 +3621,14 @@
       <c r="P88" s="37"/>
     </row>
     <row r="89" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="53" t="s">
+      <c r="A89" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B89" s="96" t="s">
+      <c r="B89" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C89" s="97"/>
-      <c r="D89" s="98"/>
+      <c r="C89" s="72"/>
+      <c r="D89" s="73"/>
       <c r="E89" s="38"/>
       <c r="F89" s="39"/>
       <c r="G89" s="40"/>
@@ -4105,14 +3646,14 @@
       <c r="A90" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B90" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="C90" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="D90" s="92" t="s">
-        <v>109</v>
+      <c r="B90" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C90" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D90" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="E90" s="41"/>
       <c r="F90" s="35"/>
@@ -4128,14 +3669,14 @@
       <c r="P90" s="37"/>
     </row>
     <row r="91" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="53" t="s">
+      <c r="A91" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B91" s="96" t="s">
+      <c r="B91" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C91" s="97"/>
-      <c r="D91" s="98"/>
+      <c r="C91" s="72"/>
+      <c r="D91" s="73"/>
       <c r="E91" s="38"/>
       <c r="F91" s="39"/>
       <c r="G91" s="40"/>
@@ -4153,14 +3694,14 @@
       <c r="A92" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B92" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="C92" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="D92" s="92" t="s">
-        <v>109</v>
+      <c r="B92" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C92" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D92" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="E92" s="41"/>
       <c r="F92" s="35"/>
@@ -4176,14 +3717,14 @@
       <c r="P92" s="37"/>
     </row>
     <row r="93" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="53" t="s">
+      <c r="A93" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B93" s="96" t="s">
+      <c r="B93" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C93" s="97"/>
-      <c r="D93" s="98"/>
+      <c r="C93" s="72"/>
+      <c r="D93" s="73"/>
       <c r="E93" s="38"/>
       <c r="F93" s="39"/>
       <c r="G93" s="40"/>
@@ -4201,14 +3742,14 @@
       <c r="A94" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B94" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="C94" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="D94" s="92" t="s">
-        <v>109</v>
+      <c r="B94" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C94" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D94" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="E94" s="41"/>
       <c r="F94" s="35"/>
@@ -4224,14 +3765,14 @@
       <c r="P94" s="37"/>
     </row>
     <row r="95" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="53" t="s">
+      <c r="A95" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B95" s="96" t="s">
+      <c r="B95" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C95" s="97"/>
-      <c r="D95" s="98"/>
+      <c r="C95" s="72"/>
+      <c r="D95" s="73"/>
       <c r="E95" s="38"/>
       <c r="F95" s="39"/>
       <c r="G95" s="40"/>
@@ -4249,14 +3790,14 @@
       <c r="A96" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B96" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="C96" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="D96" s="92" t="s">
-        <v>109</v>
+      <c r="B96" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C96" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D96" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="E96" s="41"/>
       <c r="F96" s="35"/>
@@ -4272,14 +3813,14 @@
       <c r="P96" s="37"/>
     </row>
     <row r="97" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="53" t="s">
+      <c r="A97" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B97" s="96" t="s">
+      <c r="B97" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C97" s="97"/>
-      <c r="D97" s="98"/>
+      <c r="C97" s="72"/>
+      <c r="D97" s="73"/>
       <c r="E97" s="38"/>
       <c r="F97" s="39"/>
       <c r="G97" s="40"/>
@@ -4297,14 +3838,14 @@
       <c r="A98" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B98" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="C98" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="D98" s="92" t="s">
-        <v>109</v>
+      <c r="B98" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C98" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D98" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="E98" s="41"/>
       <c r="F98" s="35"/>
@@ -4320,14 +3861,14 @@
       <c r="P98" s="37"/>
     </row>
     <row r="99" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="53" t="s">
+      <c r="A99" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B99" s="96" t="s">
+      <c r="B99" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C99" s="97"/>
-      <c r="D99" s="98"/>
+      <c r="C99" s="72"/>
+      <c r="D99" s="73"/>
       <c r="E99" s="38"/>
       <c r="F99" s="39"/>
       <c r="G99" s="40"/>
@@ -4345,14 +3886,14 @@
       <c r="A100" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B100" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="C100" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="D100" s="92" t="s">
-        <v>109</v>
+      <c r="B100" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C100" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D100" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="E100" s="41"/>
       <c r="F100" s="35"/>
@@ -4368,14 +3909,14 @@
       <c r="P100" s="37"/>
     </row>
     <row r="101" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="53" t="s">
+      <c r="A101" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B101" s="96" t="s">
+      <c r="B101" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C101" s="97"/>
-      <c r="D101" s="98"/>
+      <c r="C101" s="72"/>
+      <c r="D101" s="73"/>
       <c r="E101" s="38"/>
       <c r="F101" s="39"/>
       <c r="G101" s="40"/>
@@ -4393,14 +3934,14 @@
       <c r="A102" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B102" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="C102" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="D102" s="92" t="s">
-        <v>109</v>
+      <c r="B102" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C102" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D102" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="E102" s="41"/>
       <c r="F102" s="35"/>
@@ -4596,7 +4137,7 @@
       <c r="P112" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="81">
     <mergeCell ref="B99:D99"/>
     <mergeCell ref="B101:D101"/>
     <mergeCell ref="A17:A18"/>
@@ -4674,7 +4215,6 @@
     <mergeCell ref="B20:P20"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:P25"/>
-    <mergeCell ref="S20:U20"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="N23:P23"/>
@@ -4684,759 +4224,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE54FB90-7D9E-467C-8724-1EBEEF7A282C}">
-  <dimension ref="A1:G53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="49.140625" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="153" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="154"/>
-      <c r="D4" s="155"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="G4" s="59" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="156" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="157"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" s="62" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="63" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="159" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="160"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="65" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="162" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="163"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="67" t="s">
-        <v>93</v>
-      </c>
-      <c r="G7" s="68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="69" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="166"/>
-      <c r="D8" s="167"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="146"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="149" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="150"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="72" t="s">
-        <v>95</v>
-      </c>
-      <c r="G9" s="147"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="73" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" s="152" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="150"/>
-      <c r="D10" s="151"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="148"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="76" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" s="76" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="77" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="77" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" s="77" t="s">
-        <v>101</v>
-      </c>
-      <c r="F12" s="78" t="s">
-        <v>102</v>
-      </c>
-      <c r="G12" s="79" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="168" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="169"/>
-      <c r="D13" s="169"/>
-      <c r="E13" s="169"/>
-      <c r="F13" s="170"/>
-      <c r="G13" s="81"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="168" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="169"/>
-      <c r="D14" s="169"/>
-      <c r="E14" s="169"/>
-      <c r="F14" s="170"/>
-      <c r="G14" s="82"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="168" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="169"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="169"/>
-      <c r="F15" s="170"/>
-      <c r="G15" s="84"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="168" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="169"/>
-      <c r="D16" s="169"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="170"/>
-      <c r="G16" s="84"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="168" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="169"/>
-      <c r="D17" s="169"/>
-      <c r="E17" s="169"/>
-      <c r="F17" s="170"/>
-      <c r="G17" s="84"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="168" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="169"/>
-      <c r="D18" s="169"/>
-      <c r="E18" s="169"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="84"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="168" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="169"/>
-      <c r="D19" s="169"/>
-      <c r="E19" s="169"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="84"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="168" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="169"/>
-      <c r="D20" s="169"/>
-      <c r="E20" s="169"/>
-      <c r="F20" s="170"/>
-      <c r="G20" s="84"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="168" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="169"/>
-      <c r="D21" s="169"/>
-      <c r="E21" s="169"/>
-      <c r="F21" s="170"/>
-      <c r="G21" s="84"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="168" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="169"/>
-      <c r="D22" s="169"/>
-      <c r="E22" s="169"/>
-      <c r="F22" s="170"/>
-      <c r="G22" s="84"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="168" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="169"/>
-      <c r="D23" s="169"/>
-      <c r="E23" s="169"/>
-      <c r="F23" s="170"/>
-      <c r="G23" s="84"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="168" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="169"/>
-      <c r="D24" s="169"/>
-      <c r="E24" s="169"/>
-      <c r="F24" s="170"/>
-      <c r="G24" s="83"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="168" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="169"/>
-      <c r="D25" s="169"/>
-      <c r="E25" s="169"/>
-      <c r="F25" s="170"/>
-      <c r="G25" s="83"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="168" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="169"/>
-      <c r="D26" s="169"/>
-      <c r="E26" s="169"/>
-      <c r="F26" s="170"/>
-      <c r="G26" s="83"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" s="168" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="169"/>
-      <c r="D27" s="169"/>
-      <c r="E27" s="169"/>
-      <c r="F27" s="170"/>
-      <c r="G27" s="83"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="168" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="169"/>
-      <c r="D28" s="169"/>
-      <c r="E28" s="169"/>
-      <c r="F28" s="170"/>
-      <c r="G28" s="83"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" s="168" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="169"/>
-      <c r="D29" s="169"/>
-      <c r="E29" s="169"/>
-      <c r="F29" s="170"/>
-      <c r="G29" s="83"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="168" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="169"/>
-      <c r="D30" s="169"/>
-      <c r="E30" s="169"/>
-      <c r="F30" s="170"/>
-      <c r="G30" s="83"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" s="168" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="169"/>
-      <c r="D31" s="169"/>
-      <c r="E31" s="169"/>
-      <c r="F31" s="170"/>
-      <c r="G31" s="83"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="168" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="169"/>
-      <c r="D32" s="169"/>
-      <c r="E32" s="169"/>
-      <c r="F32" s="170"/>
-      <c r="G32" s="83"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" s="168" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="169"/>
-      <c r="D33" s="169"/>
-      <c r="E33" s="169"/>
-      <c r="F33" s="170"/>
-      <c r="G33" s="83"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" s="168" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="169"/>
-      <c r="D34" s="169"/>
-      <c r="E34" s="169"/>
-      <c r="F34" s="170"/>
-      <c r="G34" s="83"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="168" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="169"/>
-      <c r="D35" s="169"/>
-      <c r="E35" s="169"/>
-      <c r="F35" s="170"/>
-      <c r="G35" s="83"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="168" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="169"/>
-      <c r="D36" s="169"/>
-      <c r="E36" s="169"/>
-      <c r="F36" s="170"/>
-      <c r="G36" s="83"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="168" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="169"/>
-      <c r="D37" s="169"/>
-      <c r="E37" s="169"/>
-      <c r="F37" s="170"/>
-      <c r="G37" s="83"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" s="168" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="169"/>
-      <c r="D38" s="169"/>
-      <c r="E38" s="169"/>
-      <c r="F38" s="170"/>
-      <c r="G38" s="83"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" s="168" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="169"/>
-      <c r="D39" s="169"/>
-      <c r="E39" s="169"/>
-      <c r="F39" s="170"/>
-      <c r="G39" s="83"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="B40" s="168" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" s="169"/>
-      <c r="D40" s="169"/>
-      <c r="E40" s="169"/>
-      <c r="F40" s="170"/>
-      <c r="G40" s="83"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="B41" s="168" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" s="169"/>
-      <c r="D41" s="169"/>
-      <c r="E41" s="169"/>
-      <c r="F41" s="170"/>
-      <c r="G41" s="83"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="B42" s="168" t="s">
-        <v>75</v>
-      </c>
-      <c r="C42" s="169"/>
-      <c r="D42" s="169"/>
-      <c r="E42" s="169"/>
-      <c r="F42" s="170"/>
-      <c r="G42" s="83"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="B43" s="168" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" s="169"/>
-      <c r="D43" s="169"/>
-      <c r="E43" s="169"/>
-      <c r="F43" s="170"/>
-      <c r="G43" s="83"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="B44" s="168" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="169"/>
-      <c r="D44" s="169"/>
-      <c r="E44" s="169"/>
-      <c r="F44" s="170"/>
-      <c r="G44" s="83"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="B45" s="168" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" s="169"/>
-      <c r="D45" s="169"/>
-      <c r="E45" s="169"/>
-      <c r="F45" s="170"/>
-      <c r="G45" s="83"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="B46" s="168" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="169"/>
-      <c r="D46" s="169"/>
-      <c r="E46" s="169"/>
-      <c r="F46" s="170"/>
-      <c r="G46" s="83"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="B47" s="168" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" s="169"/>
-      <c r="D47" s="169"/>
-      <c r="E47" s="169"/>
-      <c r="F47" s="170"/>
-      <c r="G47" s="83"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="B48" s="168" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" s="169"/>
-      <c r="D48" s="169"/>
-      <c r="E48" s="169"/>
-      <c r="F48" s="170"/>
-      <c r="G48" s="83"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="B49" s="168" t="s">
-        <v>75</v>
-      </c>
-      <c r="C49" s="169"/>
-      <c r="D49" s="169"/>
-      <c r="E49" s="169"/>
-      <c r="F49" s="170"/>
-      <c r="G49" s="83"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="B50" s="168" t="s">
-        <v>75</v>
-      </c>
-      <c r="C50" s="169"/>
-      <c r="D50" s="169"/>
-      <c r="E50" s="169"/>
-      <c r="F50" s="170"/>
-      <c r="G50" s="83"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="B51" s="168" t="s">
-        <v>75</v>
-      </c>
-      <c r="C51" s="169"/>
-      <c r="D51" s="169"/>
-      <c r="E51" s="169"/>
-      <c r="F51" s="170"/>
-      <c r="G51" s="83"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="B52" s="168" t="s">
-        <v>75</v>
-      </c>
-      <c r="C52" s="169"/>
-      <c r="D52" s="169"/>
-      <c r="E52" s="169"/>
-      <c r="F52" s="170"/>
-      <c r="G52" s="83"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="B53" s="168" t="s">
-        <v>75</v>
-      </c>
-      <c r="C53" s="169"/>
-      <c r="D53" s="169"/>
-      <c r="E53" s="169"/>
-      <c r="F53" s="170"/>
-      <c r="G53" s="83"/>
-    </row>
-  </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/templates/11.11.25.xlsx
+++ b/templates/11.11.25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\indicaciones_medicas\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A028A015-1600-4AAA-9657-1350C38FDDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB228BE-940F-47EF-BF27-23CD3BDB7EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8F26B026-E952-45BF-A1DB-55563CFCC2D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8F26B026-E952-45BF-A1DB-55563CFCC2D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicaciones médicas" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="89">
   <si>
     <t xml:space="preserve">Fecha </t>
   </si>
@@ -290,12 +290,6 @@
     <t>{{60HOLLIDAY}}</t>
   </si>
   <si>
-    <t>{{FLEBOS}}</t>
-  </si>
-  <si>
-    <t>FLEBOS</t>
-  </si>
-  <si>
     <t xml:space="preserve">{{DOSIS}} </t>
   </si>
   <si>
@@ -309,6 +303,12 @@
   </si>
   <si>
     <t>TOF</t>
+  </si>
+  <si>
+    <t>VOL HOLLIDAY 60%</t>
+  </si>
+  <si>
+    <t>repos</t>
   </si>
 </sst>
 </file>
@@ -672,7 +672,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
@@ -858,88 +858,78 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -949,10 +939,14 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -964,7 +958,13 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -978,9 +978,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
@@ -995,53 +992,53 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1486,8 +1483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F7F867-996E-4386-BA02-4186311E04F2}">
   <dimension ref="A1:P112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1529,13 +1526,13 @@
     <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
-      <c r="C2" s="120" t="s">
+      <c r="C2" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
@@ -1549,12 +1546,12 @@
     <row r="3" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
-      <c r="C3" s="120" t="s">
+      <c r="C3" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
       <c r="G3" s="12"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
@@ -1630,10 +1627,10 @@
       <c r="I6" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="122" t="s">
+      <c r="J6" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="96"/>
+      <c r="K6" s="93"/>
       <c r="L6" s="44" t="s">
         <v>8</v>
       </c>
@@ -1643,46 +1640,46 @@
       <c r="N6" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="123" t="s">
+      <c r="O6" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="P6" s="93"/>
+      <c r="P6" s="90"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="124" t="s">
+      <c r="B7" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
       <c r="I7" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="123" t="s">
+      <c r="J7" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
       <c r="N7" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="125" t="s">
+      <c r="O7" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="P7" s="93"/>
+      <c r="P7" s="90"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="92" t="s">
+      <c r="A8" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="93"/>
+      <c r="B8" s="90"/>
       <c r="C8" s="22" t="s">
         <v>15</v>
       </c>
@@ -1695,88 +1692,88 @@
       <c r="F8" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="126" t="s">
+      <c r="G8" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="94"/>
-      <c r="I8" s="92" t="s">
+      <c r="H8" s="91"/>
+      <c r="I8" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="93"/>
+      <c r="J8" s="90"/>
       <c r="K8" s="54" t="s">
         <v>57</v>
       </c>
       <c r="L8" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="M8" s="127" t="s">
+      <c r="M8" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="N8" s="96"/>
-      <c r="O8" s="96"/>
-      <c r="P8" s="96"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="93"/>
+      <c r="P8" s="93"/>
     </row>
     <row r="9" spans="1:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="86" t="s">
+      <c r="B9" s="90"/>
+      <c r="C9" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="91"/>
       <c r="L9" s="65"/>
       <c r="M9" s="101"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="92" t="s">
+      <c r="A10" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="93"/>
-      <c r="C10" s="86" t="s">
+      <c r="B10" s="90"/>
+      <c r="C10" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="94"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="91"/>
+      <c r="O10" s="91"/>
+      <c r="P10" s="91"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="96"/>
+      <c r="B11" s="93"/>
       <c r="C11" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="97" t="s">
+      <c r="D11" s="122" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="96"/>
+      <c r="E11" s="93"/>
       <c r="F11" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="113"/>
-      <c r="H11" s="93"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="90"/>
       <c r="I11" s="66"/>
       <c r="J11" s="30" t="s">
         <v>26</v>
@@ -1793,14 +1790,16 @@
       <c r="N11" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="O11" s="114" t="s">
+      <c r="O11" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="P11" s="94"/>
+      <c r="P11" s="91"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="115"/>
-      <c r="B12" s="99"/>
+      <c r="A12" s="121" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="93"/>
       <c r="C12" s="70" t="s">
         <v>81</v>
       </c>
@@ -1829,38 +1828,38 @@
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="100"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="80"/>
+      <c r="N13" s="80"/>
+      <c r="O13" s="80"/>
+      <c r="P13" s="81"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="112" t="s">
+      <c r="C14" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="87"/>
-      <c r="O14" s="87"/>
-      <c r="P14" s="88"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="111"/>
+      <c r="O14" s="111"/>
+      <c r="P14" s="113"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
@@ -1903,12 +1902,12 @@
       <c r="B16" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="116" t="s">
+      <c r="C16" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="118"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="119"/>
       <c r="G16" s="23"/>
       <c r="H16" s="24"/>
       <c r="I16" s="40" t="s">
@@ -1925,86 +1924,86 @@
       <c r="P16" s="47"/>
     </row>
     <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="126"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="119" t="s">
+      <c r="C17" s="120" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="117"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="117"/>
-      <c r="N17" s="117"/>
-      <c r="O17" s="117"/>
-      <c r="P17" s="118"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="118"/>
+      <c r="M17" s="118"/>
+      <c r="N17" s="118"/>
+      <c r="O17" s="118"/>
+      <c r="P17" s="119"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="129"/>
-      <c r="B18" s="79" t="s">
+      <c r="A18" s="75"/>
+      <c r="B18" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="80"/>
-      <c r="N18" s="80"/>
-      <c r="O18" s="80"/>
-      <c r="P18" s="81"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="88"/>
     </row>
     <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="124" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="83"/>
-      <c r="N19" s="83"/>
-      <c r="O19" s="83"/>
-      <c r="P19" s="84"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="105"/>
+      <c r="L19" s="105"/>
+      <c r="M19" s="105"/>
+      <c r="N19" s="105"/>
+      <c r="O19" s="105"/>
+      <c r="P19" s="106"/>
     </row>
     <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="87"/>
-      <c r="M20" s="87"/>
-      <c r="N20" s="87"/>
-      <c r="O20" s="87"/>
-      <c r="P20" s="88"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="111"/>
+      <c r="K20" s="111"/>
+      <c r="L20" s="111"/>
+      <c r="M20" s="111"/>
+      <c r="N20" s="111"/>
+      <c r="O20" s="111"/>
+      <c r="P20" s="113"/>
     </row>
     <row r="21" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
@@ -2013,20 +2012,20 @@
       <c r="B21" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="99"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="99"/>
-      <c r="M21" s="99"/>
-      <c r="N21" s="99"/>
-      <c r="O21" s="99"/>
-      <c r="P21" s="100"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="80"/>
+      <c r="P21" s="81"/>
     </row>
     <row r="22" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
@@ -2035,20 +2034,20 @@
       <c r="B22" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="104"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="83"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="83"/>
-      <c r="N22" s="83"/>
-      <c r="O22" s="83"/>
-      <c r="P22" s="84"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="105"/>
+      <c r="L22" s="105"/>
+      <c r="M22" s="105"/>
+      <c r="N22" s="105"/>
+      <c r="O22" s="105"/>
+      <c r="P22" s="106"/>
     </row>
     <row r="23" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
@@ -2061,109 +2060,105 @@
       <c r="D23" s="108"/>
       <c r="E23" s="108"/>
       <c r="F23" s="109"/>
-      <c r="G23" s="74" t="s">
-        <v>87</v>
-      </c>
-      <c r="H23" s="76"/>
+      <c r="G23" s="129" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" s="131"/>
       <c r="I23" s="49" t="s">
         <v>70</v>
       </c>
       <c r="J23" s="52"/>
-      <c r="K23" s="74" t="s">
-        <v>88</v>
-      </c>
-      <c r="L23" s="75"/>
+      <c r="K23" s="129" t="s">
+        <v>86</v>
+      </c>
+      <c r="L23" s="130"/>
       <c r="M23" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="N23" s="76"/>
-      <c r="O23" s="77"/>
-      <c r="P23" s="78"/>
+      <c r="N23" s="131"/>
+      <c r="O23" s="132"/>
+      <c r="P23" s="133"/>
     </row>
     <row r="24" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
       <c r="B24" s="110"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="111"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="111"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="87"/>
-      <c r="M24" s="87"/>
-      <c r="N24" s="87"/>
-      <c r="O24" s="87"/>
-      <c r="P24" s="88"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="112"/>
+      <c r="H24" s="112"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="112"/>
+      <c r="K24" s="111"/>
+      <c r="L24" s="111"/>
+      <c r="M24" s="111"/>
+      <c r="N24" s="111"/>
+      <c r="O24" s="111"/>
+      <c r="P24" s="113"/>
     </row>
     <row r="25" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="89" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="91"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="91"/>
-      <c r="M25" s="91"/>
-      <c r="N25" s="91"/>
-      <c r="O25" s="91"/>
-      <c r="P25" s="91"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="128"/>
+      <c r="G25" s="128"/>
+      <c r="H25" s="128"/>
+      <c r="I25" s="128"/>
+      <c r="J25" s="128"/>
+      <c r="K25" s="128"/>
+      <c r="L25" s="128"/>
+      <c r="M25" s="128"/>
+      <c r="N25" s="128"/>
+      <c r="O25" s="128"/>
+      <c r="P25" s="128"/>
     </row>
     <row r="26" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
-      <c r="B26" s="130" t="s">
+      <c r="B26" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="132"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="121"/>
-      <c r="J26" s="121"/>
-      <c r="K26" s="121"/>
-      <c r="L26" s="121"/>
-      <c r="M26" s="121"/>
-      <c r="N26" s="121"/>
-      <c r="O26" s="121"/>
-      <c r="P26" s="133"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="83"/>
+      <c r="L26" s="83"/>
+      <c r="M26" s="83"/>
+      <c r="N26" s="83"/>
+      <c r="O26" s="83"/>
+      <c r="P26" s="84"/>
     </row>
     <row r="27" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="31"/>
-      <c r="B27" s="131"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="100"/>
-      <c r="G27" s="134"/>
-      <c r="H27" s="121"/>
-      <c r="I27" s="121"/>
-      <c r="J27" s="121"/>
-      <c r="K27" s="121"/>
-      <c r="L27" s="121"/>
-      <c r="M27" s="121"/>
-      <c r="N27" s="121"/>
-      <c r="O27" s="121"/>
-      <c r="P27" s="133"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="83"/>
+      <c r="L27" s="83"/>
+      <c r="M27" s="83"/>
+      <c r="N27" s="83"/>
+      <c r="O27" s="83"/>
+      <c r="P27" s="84"/>
     </row>
     <row r="28" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="51" t="s">
         <v>73</v>
       </c>
       <c r="B28" s="71" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C28" s="72"/>
       <c r="D28" s="73"/>
@@ -2185,13 +2180,13 @@
         <v>74</v>
       </c>
       <c r="B29" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="59" t="s">
         <v>84</v>
-      </c>
-      <c r="C29" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" s="59" t="s">
-        <v>86</v>
       </c>
       <c r="E29" s="35"/>
       <c r="F29" s="35"/>
@@ -2233,13 +2228,13 @@
         <v>74</v>
       </c>
       <c r="B31" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="59" t="s">
         <v>84</v>
-      </c>
-      <c r="C31" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="59" t="s">
-        <v>86</v>
       </c>
       <c r="E31" s="41"/>
       <c r="F31" s="35"/>
@@ -2281,13 +2276,13 @@
         <v>74</v>
       </c>
       <c r="B33" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="59" t="s">
         <v>84</v>
-      </c>
-      <c r="C33" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="D33" s="59" t="s">
-        <v>86</v>
       </c>
       <c r="E33" s="41"/>
       <c r="F33" s="35"/>
@@ -2329,13 +2324,13 @@
         <v>74</v>
       </c>
       <c r="B35" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="59" t="s">
         <v>84</v>
-      </c>
-      <c r="C35" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35" s="59" t="s">
-        <v>86</v>
       </c>
       <c r="E35" s="41"/>
       <c r="F35" s="35"/>
@@ -2377,13 +2372,13 @@
         <v>74</v>
       </c>
       <c r="B37" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="59" t="s">
         <v>84</v>
-      </c>
-      <c r="C37" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" s="59" t="s">
-        <v>86</v>
       </c>
       <c r="E37" s="41"/>
       <c r="F37" s="35"/>
@@ -2425,13 +2420,13 @@
         <v>74</v>
       </c>
       <c r="B39" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="59" t="s">
         <v>84</v>
-      </c>
-      <c r="C39" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" s="59" t="s">
-        <v>86</v>
       </c>
       <c r="E39" s="41"/>
       <c r="F39" s="35"/>
@@ -2473,13 +2468,13 @@
         <v>74</v>
       </c>
       <c r="B41" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="59" t="s">
         <v>84</v>
-      </c>
-      <c r="C41" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="59" t="s">
-        <v>86</v>
       </c>
       <c r="E41" s="41"/>
       <c r="F41" s="35"/>
@@ -2521,13 +2516,13 @@
         <v>74</v>
       </c>
       <c r="B43" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="59" t="s">
         <v>84</v>
-      </c>
-      <c r="C43" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="59" t="s">
-        <v>86</v>
       </c>
       <c r="E43" s="41"/>
       <c r="F43" s="35"/>
@@ -2569,13 +2564,13 @@
         <v>74</v>
       </c>
       <c r="B45" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" s="59" t="s">
         <v>84</v>
-      </c>
-      <c r="C45" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45" s="59" t="s">
-        <v>86</v>
       </c>
       <c r="E45" s="41"/>
       <c r="F45" s="35"/>
@@ -2617,13 +2612,13 @@
         <v>74</v>
       </c>
       <c r="B47" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" s="59" t="s">
         <v>84</v>
-      </c>
-      <c r="C47" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="D47" s="59" t="s">
-        <v>86</v>
       </c>
       <c r="E47" s="41"/>
       <c r="F47" s="35"/>
@@ -2665,13 +2660,13 @@
         <v>74</v>
       </c>
       <c r="B49" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49" s="59" t="s">
         <v>84</v>
-      </c>
-      <c r="C49" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="D49" s="59" t="s">
-        <v>86</v>
       </c>
       <c r="E49" s="41"/>
       <c r="F49" s="35"/>
@@ -2713,13 +2708,13 @@
         <v>74</v>
       </c>
       <c r="B51" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D51" s="59" t="s">
         <v>84</v>
-      </c>
-      <c r="C51" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="D51" s="59" t="s">
-        <v>86</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="42"/>
@@ -2761,13 +2756,13 @@
         <v>74</v>
       </c>
       <c r="B53" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" s="59" t="s">
         <v>84</v>
-      </c>
-      <c r="C53" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="D53" s="59" t="s">
-        <v>86</v>
       </c>
       <c r="E53" s="41"/>
       <c r="F53" s="35"/>
@@ -2809,13 +2804,13 @@
         <v>74</v>
       </c>
       <c r="B55" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" s="59" t="s">
         <v>84</v>
-      </c>
-      <c r="C55" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="D55" s="59" t="s">
-        <v>86</v>
       </c>
       <c r="E55" s="41"/>
       <c r="F55" s="35"/>
@@ -2857,13 +2852,13 @@
         <v>74</v>
       </c>
       <c r="B57" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" s="59" t="s">
         <v>84</v>
-      </c>
-      <c r="C57" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="D57" s="59" t="s">
-        <v>86</v>
       </c>
       <c r="E57" s="41"/>
       <c r="F57" s="35"/>
@@ -2882,21 +2877,21 @@
       <c r="A58" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B58" s="92"/>
-      <c r="C58" s="80"/>
-      <c r="D58" s="81"/>
+      <c r="B58" s="86"/>
+      <c r="C58" s="87"/>
+      <c r="D58" s="88"/>
       <c r="E58" s="43"/>
       <c r="F58" s="44"/>
-      <c r="G58" s="128" t="s">
+      <c r="G58" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="H58" s="80"/>
-      <c r="I58" s="80"/>
-      <c r="J58" s="80"/>
-      <c r="K58" s="80"/>
-      <c r="L58" s="80"/>
-      <c r="M58" s="80"/>
-      <c r="N58" s="80"/>
+      <c r="H58" s="87"/>
+      <c r="I58" s="87"/>
+      <c r="J58" s="87"/>
+      <c r="K58" s="87"/>
+      <c r="L58" s="87"/>
+      <c r="M58" s="87"/>
+      <c r="N58" s="87"/>
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
     </row>
@@ -2927,13 +2922,13 @@
         <v>74</v>
       </c>
       <c r="B60" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D60" s="59" t="s">
         <v>84</v>
-      </c>
-      <c r="C60" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="D60" s="59" t="s">
-        <v>86</v>
       </c>
       <c r="E60" s="41"/>
       <c r="F60" s="35"/>
@@ -2975,13 +2970,13 @@
         <v>74</v>
       </c>
       <c r="B62" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D62" s="59" t="s">
         <v>84</v>
-      </c>
-      <c r="C62" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="D62" s="59" t="s">
-        <v>86</v>
       </c>
       <c r="E62" s="41"/>
       <c r="F62" s="35"/>
@@ -3023,13 +3018,13 @@
         <v>74</v>
       </c>
       <c r="B64" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D64" s="59" t="s">
         <v>84</v>
-      </c>
-      <c r="C64" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="D64" s="59" t="s">
-        <v>86</v>
       </c>
       <c r="E64" s="41"/>
       <c r="F64" s="35"/>
@@ -3071,13 +3066,13 @@
         <v>74</v>
       </c>
       <c r="B66" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D66" s="59" t="s">
         <v>84</v>
-      </c>
-      <c r="C66" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="D66" s="59" t="s">
-        <v>86</v>
       </c>
       <c r="E66" s="41"/>
       <c r="F66" s="35"/>
@@ -3119,13 +3114,13 @@
         <v>74</v>
       </c>
       <c r="B68" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D68" s="59" t="s">
         <v>84</v>
-      </c>
-      <c r="C68" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="D68" s="59" t="s">
-        <v>86</v>
       </c>
       <c r="E68" s="41"/>
       <c r="F68" s="35"/>
@@ -3167,13 +3162,13 @@
         <v>74</v>
       </c>
       <c r="B70" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D70" s="59" t="s">
         <v>84</v>
-      </c>
-      <c r="C70" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="D70" s="59" t="s">
-        <v>86</v>
       </c>
       <c r="E70" s="41"/>
       <c r="F70" s="35"/>
@@ -3215,13 +3210,13 @@
         <v>74</v>
       </c>
       <c r="B72" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D72" s="59" t="s">
         <v>84</v>
-      </c>
-      <c r="C72" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="D72" s="59" t="s">
-        <v>86</v>
       </c>
       <c r="E72" s="41"/>
       <c r="F72" s="35"/>
@@ -3263,13 +3258,13 @@
         <v>74</v>
       </c>
       <c r="B74" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D74" s="59" t="s">
         <v>84</v>
-      </c>
-      <c r="C74" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="D74" s="59" t="s">
-        <v>86</v>
       </c>
       <c r="E74" s="41"/>
       <c r="F74" s="35"/>
@@ -3311,13 +3306,13 @@
         <v>74</v>
       </c>
       <c r="B76" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D76" s="59" t="s">
         <v>84</v>
-      </c>
-      <c r="C76" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="D76" s="59" t="s">
-        <v>86</v>
       </c>
       <c r="E76" s="41"/>
       <c r="F76" s="35"/>
@@ -3359,13 +3354,13 @@
         <v>74</v>
       </c>
       <c r="B78" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D78" s="59" t="s">
         <v>84</v>
-      </c>
-      <c r="C78" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="D78" s="59" t="s">
-        <v>86</v>
       </c>
       <c r="E78" s="41"/>
       <c r="F78" s="35"/>
@@ -3407,13 +3402,13 @@
         <v>74</v>
       </c>
       <c r="B80" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D80" s="59" t="s">
         <v>84</v>
-      </c>
-      <c r="C80" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="D80" s="59" t="s">
-        <v>86</v>
       </c>
       <c r="E80" s="41"/>
       <c r="F80" s="35"/>
@@ -3455,13 +3450,13 @@
         <v>74</v>
       </c>
       <c r="B82" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D82" s="59" t="s">
         <v>84</v>
-      </c>
-      <c r="C82" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="D82" s="59" t="s">
-        <v>86</v>
       </c>
       <c r="E82" s="41"/>
       <c r="F82" s="35"/>
@@ -3503,13 +3498,13 @@
         <v>74</v>
       </c>
       <c r="B84" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C84" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D84" s="59" t="s">
         <v>84</v>
-      </c>
-      <c r="C84" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="D84" s="59" t="s">
-        <v>86</v>
       </c>
       <c r="E84" s="41"/>
       <c r="F84" s="35"/>
@@ -3551,13 +3546,13 @@
         <v>74</v>
       </c>
       <c r="B86" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C86" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D86" s="59" t="s">
         <v>84</v>
-      </c>
-      <c r="C86" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="D86" s="59" t="s">
-        <v>86</v>
       </c>
       <c r="E86" s="41"/>
       <c r="F86" s="35"/>
@@ -3599,13 +3594,13 @@
         <v>74</v>
       </c>
       <c r="B88" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C88" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D88" s="59" t="s">
         <v>84</v>
-      </c>
-      <c r="C88" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="D88" s="59" t="s">
-        <v>86</v>
       </c>
       <c r="E88" s="41"/>
       <c r="F88" s="35"/>
@@ -3647,13 +3642,13 @@
         <v>74</v>
       </c>
       <c r="B90" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C90" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D90" s="59" t="s">
         <v>84</v>
-      </c>
-      <c r="C90" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="D90" s="59" t="s">
-        <v>86</v>
       </c>
       <c r="E90" s="41"/>
       <c r="F90" s="35"/>
@@ -3695,13 +3690,13 @@
         <v>74</v>
       </c>
       <c r="B92" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C92" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D92" s="59" t="s">
         <v>84</v>
-      </c>
-      <c r="C92" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="D92" s="59" t="s">
-        <v>86</v>
       </c>
       <c r="E92" s="41"/>
       <c r="F92" s="35"/>
@@ -3743,13 +3738,13 @@
         <v>74</v>
       </c>
       <c r="B94" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C94" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D94" s="59" t="s">
         <v>84</v>
-      </c>
-      <c r="C94" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="D94" s="59" t="s">
-        <v>86</v>
       </c>
       <c r="E94" s="41"/>
       <c r="F94" s="35"/>
@@ -3791,13 +3786,13 @@
         <v>74</v>
       </c>
       <c r="B96" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C96" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D96" s="59" t="s">
         <v>84</v>
-      </c>
-      <c r="C96" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="D96" s="59" t="s">
-        <v>86</v>
       </c>
       <c r="E96" s="41"/>
       <c r="F96" s="35"/>
@@ -3839,13 +3834,13 @@
         <v>74</v>
       </c>
       <c r="B98" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C98" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D98" s="59" t="s">
         <v>84</v>
-      </c>
-      <c r="C98" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="D98" s="59" t="s">
-        <v>86</v>
       </c>
       <c r="E98" s="41"/>
       <c r="F98" s="35"/>
@@ -3887,13 +3882,13 @@
         <v>74</v>
       </c>
       <c r="B100" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C100" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D100" s="59" t="s">
         <v>84</v>
-      </c>
-      <c r="C100" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="D100" s="59" t="s">
-        <v>86</v>
       </c>
       <c r="E100" s="41"/>
       <c r="F100" s="35"/>
@@ -3935,13 +3930,13 @@
         <v>74</v>
       </c>
       <c r="B102" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C102" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D102" s="59" t="s">
         <v>84</v>
-      </c>
-      <c r="C102" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="D102" s="59" t="s">
-        <v>86</v>
       </c>
       <c r="E102" s="41"/>
       <c r="F102" s="35"/>
@@ -4138,6 +4133,71 @@
     </row>
   </sheetData>
   <mergeCells count="81">
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B18:P18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="G19:P19"/>
+    <mergeCell ref="B20:P20"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:P25"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:P10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G13:P13"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="B21:P21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:P22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:P24"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="C14:P14"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:P17"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="G58:N58"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B79:D79"/>
     <mergeCell ref="B99:D99"/>
     <mergeCell ref="B101:D101"/>
     <mergeCell ref="A17:A18"/>
@@ -4154,71 +4214,6 @@
     <mergeCell ref="B67:D67"/>
     <mergeCell ref="B69:D69"/>
     <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="G58:N58"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="G13:P13"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="B21:P21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G22:P22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:P24"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="C14:P14"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:P17"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:P10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B18:P18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="G19:P19"/>
-    <mergeCell ref="B20:P20"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:P25"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="G23:H23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/templates/11.11.25.xlsx
+++ b/templates/11.11.25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\indicaciones_medicas\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DFCBC7-93D2-4844-B3FD-D870CAC9085E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E3C8D6-36F5-45FB-9C4A-DC2810ED5603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8F26B026-E952-45BF-A1DB-55563CFCC2D9}"/>
   </bookViews>
@@ -882,64 +882,83 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -955,12 +974,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -983,20 +996,10 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
@@ -1005,48 +1008,45 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1512,13 +1512,13 @@
     <row r="2" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
-      <c r="C2" s="137" t="s">
+      <c r="C2" s="127" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
@@ -1531,12 +1531,12 @@
     <row r="3" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
-      <c r="C3" s="137" t="s">
+      <c r="C3" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -1606,11 +1606,11 @@
       <c r="I6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="98" t="s">
+      <c r="J6" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="99"/>
-      <c r="L6" s="100"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="132"/>
       <c r="M6" s="47" t="s">
         <v>8</v>
       </c>
@@ -1628,37 +1628,37 @@
       <c r="A7" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
       <c r="I7" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="95" t="s">
+      <c r="J7" s="135" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
       <c r="N7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="97" t="s">
+      <c r="O7" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="P7" s="91"/>
+      <c r="P7" s="103"/>
     </row>
     <row r="8" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="91"/>
+      <c r="B8" s="103"/>
       <c r="C8" s="53" t="s">
         <v>15</v>
       </c>
@@ -1671,88 +1671,88 @@
       <c r="F8" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="84" t="s">
+      <c r="G8" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="92"/>
-      <c r="I8" s="86" t="s">
+      <c r="H8" s="104"/>
+      <c r="I8" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="91"/>
+      <c r="J8" s="103"/>
       <c r="K8" s="56" t="s">
         <v>57</v>
       </c>
       <c r="L8" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="M8" s="93" t="s">
+      <c r="M8" s="134" t="s">
         <v>76</v>
       </c>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="106"/>
     </row>
     <row r="9" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="104" t="s">
+      <c r="B9" s="103"/>
+      <c r="C9" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
       <c r="L9" s="57"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="91"/>
-      <c r="P9" s="91"/>
+      <c r="M9" s="110"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="103"/>
     </row>
     <row r="10" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="104" t="s">
+      <c r="B10" s="103"/>
+      <c r="C10" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="92"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="104"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="104"/>
     </row>
     <row r="11" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="124" t="s">
+      <c r="A11" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="94"/>
+      <c r="B11" s="106"/>
       <c r="C11" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="124" t="s">
+      <c r="D11" s="105" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="94"/>
+      <c r="E11" s="106"/>
       <c r="F11" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="86"/>
-      <c r="H11" s="91"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="103"/>
       <c r="I11" s="47"/>
       <c r="J11" s="50" t="s">
         <v>26</v>
@@ -1769,16 +1769,16 @@
       <c r="N11" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="O11" s="123" t="s">
+      <c r="O11" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="P11" s="92"/>
+      <c r="P11" s="104"/>
     </row>
     <row r="12" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="124" t="s">
+      <c r="A12" s="105" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="94"/>
+      <c r="B12" s="106"/>
       <c r="C12" s="60" t="s">
         <v>81</v>
       </c>
@@ -1807,38 +1807,38 @@
       <c r="D13" s="62"/>
       <c r="E13" s="62"/>
       <c r="F13" s="62"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="102"/>
-      <c r="N13" s="102"/>
-      <c r="O13" s="102"/>
-      <c r="P13" s="103"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="108"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="109"/>
     </row>
     <row r="14" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="66"/>
       <c r="B14" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="120" t="s">
+      <c r="C14" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="121"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="121"/>
-      <c r="J14" s="121"/>
-      <c r="K14" s="121"/>
-      <c r="L14" s="121"/>
-      <c r="M14" s="121"/>
-      <c r="N14" s="121"/>
-      <c r="O14" s="121"/>
-      <c r="P14" s="122"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="93"/>
     </row>
     <row r="15" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="68"/>
@@ -1884,9 +1884,9 @@
       <c r="C16" s="125" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="112"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="89"/>
       <c r="G16" s="71"/>
       <c r="H16" s="72"/>
       <c r="I16" s="73" t="s">
@@ -1903,206 +1903,206 @@
       <c r="P16" s="75"/>
     </row>
     <row r="17" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="84"/>
+      <c r="A17" s="133"/>
       <c r="B17" s="76" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="111"/>
-      <c r="K17" s="111"/>
-      <c r="L17" s="111"/>
-      <c r="M17" s="111"/>
-      <c r="N17" s="111"/>
-      <c r="O17" s="111"/>
-      <c r="P17" s="112"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="88"/>
+      <c r="N17" s="88"/>
+      <c r="O17" s="88"/>
+      <c r="P17" s="89"/>
     </row>
     <row r="18" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="85"/>
-      <c r="B18" s="97" t="s">
+      <c r="A18" s="138"/>
+      <c r="B18" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="88"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="86"/>
     </row>
     <row r="19" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="127" t="s">
+      <c r="B19" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="111"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="111"/>
-      <c r="I19" s="111"/>
-      <c r="J19" s="111"/>
-      <c r="K19" s="111"/>
-      <c r="L19" s="111"/>
-      <c r="M19" s="111"/>
-      <c r="N19" s="111"/>
-      <c r="O19" s="111"/>
-      <c r="P19" s="112"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="88"/>
+      <c r="M19" s="88"/>
+      <c r="N19" s="88"/>
+      <c r="O19" s="88"/>
+      <c r="P19" s="89"/>
     </row>
     <row r="20" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
-      <c r="B20" s="104"/>
-      <c r="C20" s="121"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="121"/>
-      <c r="J20" s="121"/>
-      <c r="K20" s="121"/>
-      <c r="L20" s="121"/>
-      <c r="M20" s="121"/>
-      <c r="N20" s="121"/>
-      <c r="O20" s="121"/>
-      <c r="P20" s="122"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="92"/>
+      <c r="P20" s="93"/>
     </row>
     <row r="21" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="106" t="s">
+      <c r="B21" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="102"/>
-      <c r="I21" s="102"/>
-      <c r="J21" s="102"/>
-      <c r="K21" s="102"/>
-      <c r="L21" s="102"/>
-      <c r="M21" s="102"/>
-      <c r="N21" s="102"/>
-      <c r="O21" s="102"/>
-      <c r="P21" s="103"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="108"/>
+      <c r="L21" s="108"/>
+      <c r="M21" s="108"/>
+      <c r="N21" s="108"/>
+      <c r="O21" s="108"/>
+      <c r="P21" s="109"/>
     </row>
     <row r="22" spans="1:16" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="107" t="s">
+      <c r="B22" s="112" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="108"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="111"/>
-      <c r="I22" s="111"/>
-      <c r="J22" s="111"/>
-      <c r="K22" s="111"/>
-      <c r="L22" s="111"/>
-      <c r="M22" s="111"/>
-      <c r="N22" s="111"/>
-      <c r="O22" s="111"/>
-      <c r="P22" s="112"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="88"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="88"/>
+      <c r="O22" s="88"/>
+      <c r="P22" s="89"/>
     </row>
     <row r="23" spans="1:16" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="113" t="s">
+      <c r="B23" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="114"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="129" t="s">
+      <c r="C23" s="117"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="H23" s="130"/>
+      <c r="H23" s="95"/>
       <c r="I23" s="77" t="s">
         <v>70</v>
       </c>
       <c r="J23" s="78"/>
-      <c r="K23" s="129" t="s">
+      <c r="K23" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="L23" s="130"/>
-      <c r="M23" s="129" t="s">
+      <c r="L23" s="95"/>
+      <c r="M23" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="N23" s="130"/>
+      <c r="N23" s="95"/>
       <c r="O23" s="79"/>
       <c r="P23" s="80"/>
     </row>
     <row r="24" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="118"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="117"/>
-      <c r="J24" s="118"/>
-      <c r="K24" s="117"/>
-      <c r="L24" s="117"/>
-      <c r="M24" s="117"/>
-      <c r="N24" s="117"/>
-      <c r="O24" s="117"/>
-      <c r="P24" s="119"/>
+      <c r="B24" s="119"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="121"/>
+      <c r="H24" s="121"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="121"/>
+      <c r="K24" s="120"/>
+      <c r="L24" s="120"/>
+      <c r="M24" s="120"/>
+      <c r="N24" s="120"/>
+      <c r="O24" s="120"/>
+      <c r="P24" s="122"/>
     </row>
     <row r="25" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35"/>
-      <c r="B25" s="134"/>
-      <c r="C25" s="135"/>
-      <c r="D25" s="135"/>
-      <c r="E25" s="135"/>
-      <c r="F25" s="135"/>
-      <c r="G25" s="135"/>
-      <c r="H25" s="135"/>
-      <c r="I25" s="135"/>
-      <c r="J25" s="135"/>
-      <c r="K25" s="135"/>
-      <c r="L25" s="135"/>
-      <c r="M25" s="135"/>
-      <c r="N25" s="135"/>
-      <c r="O25" s="135"/>
-      <c r="P25" s="136"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="100"/>
+      <c r="J25" s="100"/>
+      <c r="K25" s="100"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="100"/>
+      <c r="N25" s="100"/>
+      <c r="O25" s="100"/>
+      <c r="P25" s="101"/>
     </row>
     <row r="26" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="21"/>
-      <c r="B26" s="131" t="s">
+      <c r="B26" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="132"/>
-      <c r="D26" s="132"/>
-      <c r="E26" s="132"/>
-      <c r="F26" s="133"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="98"/>
       <c r="G26" s="42"/>
       <c r="H26" s="40"/>
       <c r="I26" s="40"/>
@@ -2838,21 +2838,21 @@
       <c r="A57" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="86"/>
-      <c r="C57" s="87"/>
-      <c r="D57" s="88"/>
+      <c r="B57" s="102"/>
+      <c r="C57" s="85"/>
+      <c r="D57" s="86"/>
       <c r="E57" s="32"/>
       <c r="F57" s="33"/>
-      <c r="G57" s="89" t="s">
+      <c r="G57" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="H57" s="90"/>
-      <c r="I57" s="90"/>
-      <c r="J57" s="90"/>
-      <c r="K57" s="90"/>
-      <c r="L57" s="90"/>
-      <c r="M57" s="90"/>
-      <c r="N57" s="90"/>
+      <c r="H57" s="137"/>
+      <c r="I57" s="137"/>
+      <c r="J57" s="137"/>
+      <c r="K57" s="137"/>
+      <c r="L57" s="137"/>
+      <c r="M57" s="137"/>
+      <c r="N57" s="137"/>
       <c r="O57" s="36"/>
       <c r="P57" s="37"/>
     </row>
@@ -4094,23 +4094,51 @@
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B18:P18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="G19:P19"/>
-    <mergeCell ref="B20:P20"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B25:P25"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:P10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="G57:N57"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="J6:L6"/>
     <mergeCell ref="G13:P13"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="C9:K9"/>
@@ -4127,51 +4155,23 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="C17:P17"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="G57:N57"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:P10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B18:P18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="G19:P19"/>
+    <mergeCell ref="B20:P20"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B25:P25"/>
+    <mergeCell ref="M23:N23"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="47" fitToHeight="2" orientation="portrait" r:id="rId1"/>
